--- a/HPReserger/Resources/FORMATO CARGA MASIVA ASIENTO.xlsx
+++ b/HPReserger/Resources/FORMATO CARGA MASIVA ASIENTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3f4dd11ddb50df37/Escritorio/PlazmaWS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{F777DE9D-0C6D-4C0E-A4CA-540ACA215654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E992FFDA-2881-4BFE-A53D-D4D7F3DB177E}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{F777DE9D-0C6D-4C0E-A4CA-540ACA215654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A879A119-92F6-49AB-8363-6CEEF01BE545}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,13 +30,14 @@
     <sheet name="Tablas" sheetId="2" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Datos!$A$1:$Q$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Datos!$A$1:$U$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Datos (3)'!$A$1:$R$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Datos (4)'!$A$1:$R$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Datos1 (2)'!$A$1:$R$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Datos13!$A$1:$R$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Datos24!$A$1:$R$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Datos345!$A$1:$R$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Tablas!$A$1:$B$68</definedName>
     <definedName name="TablaComprobante">Tablas!$B$1:$B$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -60,10 +61,188 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>JeffOre</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{E933C44E-8A29-4625-BB3B-2C9345D85A77}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>JeffOre:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Cuentas Contables que deben estar Activas y ser de detalle</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{0659EA05-37CD-4631-8866-76BF4C3FEABF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>JeffOre:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Se rellena con Columna S</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{44FF709C-C534-4229-9146-D9C99DFB65DC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>JeffOre:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Llenar para que Columna S, se llene</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{86501A32-6349-4489-A2E0-A36381CD6A19}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>JeffOre:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Se rellena con Columna U</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{EAEA459B-CA0D-4AEB-9F05-2740AD929C7D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>JeffOre:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Pegar Valores en Columna C</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{D855E098-6635-4330-A6DA-E43C96AD3F95}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>JeffOre:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Pegar Valores en Columna I</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{47EF629E-EBE1-4972-98EB-F11D8D944674}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>JeffOre:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Llenar para que U, se llene</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>David</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{E5E256BA-F58B-4613-BDAE-C9DC77A54F8A}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{2949FD5B-B460-4E10-9FA1-6ABAC33EC845}">
       <text>
         <r>
           <rPr>
@@ -87,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{D34C0F07-7F2C-444E-9D39-9DBB42F4768E}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{8B3DE6C0-9897-4855-91A4-68479F30D9B1}">
       <text>
         <r>
           <rPr>
@@ -111,7 +290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{D923BE18-5E6E-4439-9D95-9BA377B4FA6A}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{AD551EF8-0A94-41C7-8498-9DFE863B43EB}">
       <text>
         <r>
           <rPr>
@@ -136,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{C6BEC03F-7369-48EF-9166-C7EC29CF65FB}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{C51527A5-CAA4-43F4-8D39-010DCD649196}">
       <text>
         <r>
           <rPr>
@@ -165,7 +344,7 @@
 </comments>
 </file>
 
-<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>David</author>
@@ -273,7 +452,7 @@
 </comments>
 </file>
 
-<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>David</author>
@@ -381,7 +560,7 @@
 </comments>
 </file>
 
-<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>David</author>
@@ -489,7 +668,7 @@
 </comments>
 </file>
 
-<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>David</author>
@@ -603,6 +782,114 @@
     <author>David</author>
   </authors>
   <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{E5E256BA-F58B-4613-BDAE-C9DC77A54F8A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>David:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Colocar de preferencia el numero de RUC o DNI</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{D34C0F07-7F2C-444E-9D39-9DBB42F4768E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>David:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Colocar Nombre para todo lo que no sea RUC</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{D923BE18-5E6E-4439-9D95-9BA377B4FA6A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>David:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Codigo del centro de costo
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{C6BEC03F-7369-48EF-9166-C7EC29CF65FB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>David:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Para soles 1.00 para otros colocar tipo de cambio del dia
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>David</author>
+  </authors>
+  <commentList>
     <comment ref="D1" authorId="0" shapeId="0" xr:uid="{1BE68AFF-4AB5-4302-B11E-2C003B8507D9}">
       <text>
         <r>
@@ -705,7 +992,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>David</author>
@@ -813,7 +1100,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>David</author>
@@ -921,7 +1208,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>David</author>
@@ -1029,7 +1316,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>David</author>
@@ -1137,7 +1424,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>David</author>
@@ -1245,7 +1532,7 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>David</author>
@@ -1353,116 +1640,8 @@
 </comments>
 </file>
 
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>David</author>
-  </authors>
-  <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{2949FD5B-B460-4E10-9FA1-6ABAC33EC845}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>David:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Colocar de preferencia el numero de RUC o DNI</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{8B3DE6C0-9897-4855-91A4-68479F30D9B1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>David:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Colocar Nombre para todo lo que no sea RUC</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{AD551EF8-0A94-41C7-8498-9DFE863B43EB}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>David:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Codigo del centro de costo
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{C51527A5-CAA4-43F4-8D39-010DCD649196}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>David:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Para soles 1.00 para otros colocar tipo de cambio del dia
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4726" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4590" uniqueCount="476">
   <si>
     <t>cuenta</t>
   </si>
@@ -2457,12 +2636,6 @@
     <t>3576</t>
   </si>
   <si>
-    <t>PROVICION INTERES MONTOYA 450 K-SOLES</t>
-  </si>
-  <si>
-    <t>3576345666</t>
-  </si>
-  <si>
     <t>CUENTA</t>
   </si>
   <si>
@@ -2805,7 +2978,97 @@
     <t xml:space="preserve">2-DETRACCIÓN DE LAS VENTAS  </t>
   </si>
   <si>
-    <t>GESTION EMPRESARIAL INMOGROUP S.A.C.</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>20604384312</t>
+  </si>
+  <si>
+    <t>ERVEN S.A.C.</t>
+  </si>
+  <si>
+    <t>POR APERTURA DEL EJERCICIO CONTABLE</t>
+  </si>
+  <si>
+    <t>F001</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>BV</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>HO</t>
+  </si>
+  <si>
+    <t>VR</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>TF</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>LARGO</t>
+  </si>
+  <si>
+    <t>TIPOID</t>
+  </si>
+  <si>
+    <t>SOLES</t>
+  </si>
+  <si>
+    <t>TIPOCOM</t>
+  </si>
+  <si>
+    <t>DOCS</t>
+  </si>
+  <si>
+    <t>00000076</t>
+  </si>
+  <si>
+    <t>00000077</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>00000073</t>
+  </si>
+  <si>
+    <t>00000074</t>
+  </si>
+  <si>
+    <t>00000075</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>46927340</t>
+  </si>
+  <si>
+    <t>001609337</t>
   </si>
 </sst>
 </file>
@@ -2816,19 +3079,13 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -3085,23 +3342,12 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Taoma"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Taoma"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3195,6 +3441,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3316,24 +3574,24 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3342,198 +3600,198 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="10" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="12" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="14" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="15" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="16" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="15" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3542,17 +3800,17 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="17" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -3560,7 +3818,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3569,191 +3827,203 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="24" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="24" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="23" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="23" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="20" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="29" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="22" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="21" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="21" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="12" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="29" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="11" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="28" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="32" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="20" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="31" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="19" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="29" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="28" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="34" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="29" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="28" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="21" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="20" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="29" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="15" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="14" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="21" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="5" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="35" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="4" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="34" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="15" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="14" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="37" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="36" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="1" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="39" fillId="18" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="39" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="42" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
@@ -4037,1223 +4307,461 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05098015-4A57-4F63-9EF1-0DA151CB36D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05098015-4A57-4F63-9EF1-0DA151CB36D0}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="224" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="228" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="228" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="224" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" style="228" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.85546875" style="223" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="228" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="228" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.140625" style="228" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="224" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.7109375" style="232" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" style="228" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" style="231" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="33.5703125" style="227" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" style="227" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" style="227" customWidth="1"/>
-    <col min="19" max="19" width="7.140625" style="227" customWidth="1"/>
-    <col min="20" max="16384" width="10.85546875" style="227"/>
+    <col min="1" max="1" width="7.140625" style="228" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="227" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="227" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="228" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="227" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="229" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="229" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="227" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="227" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" style="227" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="228" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="235" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="235" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" style="227" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" style="232" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.5703125" style="226" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" style="226" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.140625" style="233" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="233" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" style="233" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.7109375" style="233" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.85546875" style="226" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.85546875" style="226"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="240" customFormat="1">
-      <c r="A1" s="225" t="s">
+    <row r="1" spans="1:22" s="225" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="237" t="s">
+        <v>331</v>
+      </c>
+      <c r="B1" s="237" t="s">
+        <v>332</v>
+      </c>
+      <c r="C1" s="237" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="225" t="s">
+      <c r="D1" s="237" t="s">
         <v>334</v>
       </c>
-      <c r="C1" s="225" t="s">
+      <c r="E1" s="237" t="s">
         <v>335</v>
       </c>
-      <c r="D1" s="225" t="s">
+      <c r="F1" s="238" t="s">
         <v>336</v>
       </c>
-      <c r="E1" s="225" t="s">
+      <c r="G1" s="238" t="s">
         <v>337</v>
       </c>
-      <c r="F1" s="238" t="s">
+      <c r="H1" s="237" t="s">
         <v>338</v>
       </c>
-      <c r="G1" s="238" t="s">
+      <c r="I1" s="237" t="s">
+        <v>414</v>
+      </c>
+      <c r="J1" s="237" t="s">
         <v>339</v>
       </c>
-      <c r="H1" s="225" t="s">
+      <c r="K1" s="237" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="225" t="s">
-        <v>416</v>
-      </c>
-      <c r="J1" s="225" t="s">
+      <c r="L1" s="239" t="s">
         <v>341</v>
       </c>
-      <c r="K1" s="225" t="s">
+      <c r="M1" s="239" t="s">
         <v>342</v>
       </c>
-      <c r="L1" s="226" t="s">
-        <v>343</v>
-      </c>
-      <c r="M1" s="226" t="s">
+      <c r="N1" s="237" t="s">
+        <v>413</v>
+      </c>
+      <c r="O1" s="240" t="s">
         <v>344</v>
       </c>
-      <c r="N1" s="225" t="s">
+      <c r="P1" s="241" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q1" s="241" t="s">
         <v>415</v>
       </c>
-      <c r="O1" s="239" t="s">
-        <v>346</v>
-      </c>
-      <c r="P1" s="240" t="s">
+      <c r="R1" s="245" t="s">
+        <v>460</v>
+      </c>
+      <c r="S1" s="245" t="s">
+        <v>461</v>
+      </c>
+      <c r="T1" s="245" t="s">
+        <v>462</v>
+      </c>
+      <c r="U1" s="245" t="s">
+        <v>463</v>
+      </c>
+      <c r="V1" s="225" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A2" s="226">
+        <v>1041102</v>
+      </c>
+      <c r="B2" s="227" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="227" t="s">
+        <v>409</v>
+      </c>
+      <c r="D2" s="228" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="227" t="s">
+        <v>319</v>
+      </c>
+      <c r="F2" s="229">
+        <v>604.67999999999995</v>
+      </c>
+      <c r="G2" s="229">
+        <v>0</v>
+      </c>
+      <c r="I2" s="227" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="227">
+        <v>0</v>
+      </c>
+      <c r="K2" s="228" t="s">
+        <v>470</v>
+      </c>
+      <c r="L2" s="230">
+        <v>45658</v>
+      </c>
+      <c r="M2" s="231">
+        <v>45658</v>
+      </c>
+      <c r="N2" s="227" t="s">
+        <v>405</v>
+      </c>
+      <c r="O2" s="232">
+        <v>3.77</v>
+      </c>
+      <c r="P2" s="226" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q2" s="226" t="s">
+        <v>426</v>
+      </c>
+      <c r="R2" s="233">
+        <f>LEN(D2)</f>
+        <v>11</v>
+      </c>
+      <c r="S2" s="233" t="str">
+        <f>VLOOKUP(R2,Tablas!$E$11:F25,2,FALSE)</f>
+        <v>5-RUC</v>
+      </c>
+      <c r="T2" s="234">
+        <f>F2-G2</f>
+        <v>604.67999999999995</v>
+      </c>
+      <c r="U2" s="234" t="str">
+        <f>VLOOKUP(V2,Tablas!A:B,2,FALSE)</f>
+        <v>0-OTROS</v>
+      </c>
+      <c r="V2" s="226" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A3" s="226">
+        <v>1041107</v>
+      </c>
+      <c r="B3" s="227" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="227" t="s">
+        <v>409</v>
+      </c>
+      <c r="D3" s="228" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="227" t="s">
+        <v>319</v>
+      </c>
+      <c r="F3" s="229">
+        <v>649.99</v>
+      </c>
+      <c r="G3" s="229">
+        <v>0</v>
+      </c>
+      <c r="I3" s="227" t="s">
+        <v>348</v>
+      </c>
+      <c r="J3" s="227">
+        <v>0</v>
+      </c>
+      <c r="K3" s="228" t="s">
+        <v>471</v>
+      </c>
+      <c r="L3" s="230">
+        <v>45658</v>
+      </c>
+      <c r="M3" s="231">
+        <v>45658</v>
+      </c>
+      <c r="N3" s="227" t="s">
+        <v>405</v>
+      </c>
+      <c r="O3" s="232">
+        <v>3.77</v>
+      </c>
+      <c r="P3" s="226" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q3" s="226" t="s">
+        <v>426</v>
+      </c>
+      <c r="R3" s="233">
+        <f t="shared" ref="R3:R6" si="0">LEN(D3)</f>
+        <v>11</v>
+      </c>
+      <c r="S3" s="233" t="str">
+        <f>VLOOKUP(R3,Tablas!$E$11:F26,2,FALSE)</f>
+        <v>5-RUC</v>
+      </c>
+      <c r="T3" s="234">
+        <f t="shared" ref="T3:T6" si="1">F3-G3</f>
+        <v>649.99</v>
+      </c>
+      <c r="U3" s="234" t="str">
+        <f>VLOOKUP(V3,Tablas!A:B,2,FALSE)</f>
+        <v>2-RECIBO POR HONORARIOS</v>
+      </c>
+      <c r="V3" s="226" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A4" s="226">
+        <v>1041202</v>
+      </c>
+      <c r="B4" s="227" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="227" t="s">
+        <v>407</v>
+      </c>
+      <c r="D4" s="236" t="s">
+        <v>475</v>
+      </c>
+      <c r="E4" s="227" t="s">
+        <v>319</v>
+      </c>
+      <c r="F4" s="229">
+        <v>5603.33</v>
+      </c>
+      <c r="G4" s="229">
+        <v>0</v>
+      </c>
+      <c r="I4" s="227" t="s">
         <v>347</v>
       </c>
-      <c r="Q1" s="240" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="227">
-        <v>3731001</v>
-      </c>
-      <c r="B2" s="228" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="228" t="s">
-        <v>411</v>
-      </c>
-      <c r="D2" s="227">
-        <v>20545971853</v>
-      </c>
-      <c r="E2" s="227" t="s">
-        <v>447</v>
-      </c>
-      <c r="F2" s="223">
-        <v>9375</v>
-      </c>
-      <c r="I2" s="228" t="s">
+      <c r="J4" s="227">
+        <v>0</v>
+      </c>
+      <c r="K4" s="228" t="s">
+        <v>472</v>
+      </c>
+      <c r="L4" s="230">
+        <v>45658</v>
+      </c>
+      <c r="M4" s="231">
+        <v>45658</v>
+      </c>
+      <c r="N4" s="227" t="s">
+        <v>405</v>
+      </c>
+      <c r="O4" s="232">
+        <v>3.77</v>
+      </c>
+      <c r="P4" s="226" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q4" s="226" t="s">
+        <v>426</v>
+      </c>
+      <c r="R4" s="233">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="S4" s="233" t="str">
+        <f>VLOOKUP(R4,Tablas!$E$11:F27,2,FALSE)</f>
+        <v>2-CARNET EXT.</v>
+      </c>
+      <c r="T4" s="234">
+        <f t="shared" si="1"/>
+        <v>5603.33</v>
+      </c>
+      <c r="U4" s="234" t="str">
+        <f>VLOOKUP(V4,Tablas!A:B,2,FALSE)</f>
+        <v>1-FACTURA</v>
+      </c>
+      <c r="V4" s="226" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A5" s="226">
+        <v>1041201</v>
+      </c>
+      <c r="B5" s="227" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="227" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="228" t="s">
+        <v>474</v>
+      </c>
+      <c r="E5" s="227" t="s">
+        <v>319</v>
+      </c>
+      <c r="F5" s="229">
+        <v>3178</v>
+      </c>
+      <c r="G5" s="229">
+        <v>0</v>
+      </c>
+      <c r="I5" s="227" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="228" t="s">
-        <v>314</v>
-      </c>
-      <c r="K2" s="224" t="s">
-        <v>332</v>
-      </c>
-      <c r="L2" s="229">
-        <v>45555</v>
-      </c>
-      <c r="M2" s="230">
-        <v>45555</v>
-      </c>
-      <c r="N2" s="228" t="s">
-        <v>407</v>
-      </c>
-      <c r="O2" s="231">
-        <v>3.7559999999999998</v>
-      </c>
-      <c r="P2" s="227" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q2" s="227" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="227">
-        <v>3731001</v>
-      </c>
-      <c r="B3" s="228" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="228" t="s">
-        <v>411</v>
-      </c>
-      <c r="D3" s="227">
-        <v>20545971853</v>
-      </c>
-      <c r="E3" s="227" t="s">
-        <v>447</v>
-      </c>
-      <c r="F3" s="223">
-        <v>9375</v>
-      </c>
-      <c r="I3" s="228" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="228" t="s">
-        <v>314</v>
-      </c>
-      <c r="K3" s="224" t="s">
-        <v>332</v>
-      </c>
-      <c r="L3" s="229">
-        <v>45555</v>
-      </c>
-      <c r="M3" s="230">
-        <v>45585</v>
-      </c>
-      <c r="N3" s="228" t="s">
-        <v>407</v>
-      </c>
-      <c r="O3" s="231">
-        <v>3.7559999999999998</v>
-      </c>
-      <c r="P3" s="227" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q3" s="227" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="227">
-        <v>3731001</v>
-      </c>
-      <c r="B4" s="228" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="228" t="s">
-        <v>411</v>
-      </c>
-      <c r="D4" s="227">
-        <v>20545971853</v>
-      </c>
-      <c r="E4" s="227" t="s">
-        <v>447</v>
-      </c>
-      <c r="F4" s="223">
-        <v>9375</v>
-      </c>
-      <c r="I4" s="228" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="228" t="s">
-        <v>314</v>
-      </c>
-      <c r="K4" s="224" t="s">
-        <v>332</v>
-      </c>
-      <c r="L4" s="229">
-        <v>45555</v>
-      </c>
-      <c r="M4" s="230">
-        <v>45616</v>
-      </c>
-      <c r="N4" s="228" t="s">
-        <v>407</v>
-      </c>
-      <c r="O4" s="231">
-        <v>3.7559999999999998</v>
-      </c>
-      <c r="P4" s="227" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q4" s="227" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="227">
-        <v>3731001</v>
-      </c>
-      <c r="B5" s="228" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="228" t="s">
-        <v>411</v>
-      </c>
-      <c r="D5" s="227">
-        <v>20545971853</v>
-      </c>
-      <c r="E5" s="227" t="s">
-        <v>447</v>
-      </c>
-      <c r="F5" s="223">
-        <v>9375</v>
-      </c>
-      <c r="I5" s="228" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="228" t="s">
-        <v>314</v>
-      </c>
-      <c r="K5" s="224" t="s">
-        <v>332</v>
-      </c>
-      <c r="L5" s="229">
-        <v>45555</v>
-      </c>
-      <c r="M5" s="230">
-        <v>45646</v>
-      </c>
-      <c r="N5" s="228" t="s">
-        <v>407</v>
-      </c>
-      <c r="O5" s="231">
-        <v>3.7559999999999998</v>
-      </c>
-      <c r="P5" s="227" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q5" s="227" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="227">
-        <v>3731001</v>
-      </c>
-      <c r="B6" s="228" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="228" t="s">
-        <v>411</v>
-      </c>
-      <c r="D6" s="227">
-        <v>20545971853</v>
+      <c r="J5" s="227">
+        <v>0</v>
+      </c>
+      <c r="K5" s="228" t="s">
+        <v>465</v>
+      </c>
+      <c r="L5" s="230">
+        <v>45658</v>
+      </c>
+      <c r="M5" s="231">
+        <v>45658</v>
+      </c>
+      <c r="N5" s="227" t="s">
+        <v>405</v>
+      </c>
+      <c r="O5" s="232">
+        <v>3.77</v>
+      </c>
+      <c r="P5" s="226" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q5" s="226" t="s">
+        <v>426</v>
+      </c>
+      <c r="R5" s="233">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="S5" s="233" t="str">
+        <f>VLOOKUP(R5,Tablas!$E$11:F28,2,FALSE)</f>
+        <v>1-DNI</v>
+      </c>
+      <c r="T5" s="234">
+        <f t="shared" si="1"/>
+        <v>3178</v>
+      </c>
+      <c r="U5" s="234" t="str">
+        <f>VLOOKUP(V5,Tablas!A:B,2,FALSE)</f>
+        <v>0-OTROS</v>
+      </c>
+      <c r="V5" s="226" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A6" s="226">
+        <v>1211202</v>
+      </c>
+      <c r="B6" s="227" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="227" t="s">
+        <v>409</v>
+      </c>
+      <c r="D6" s="228" t="s">
+        <v>446</v>
       </c>
       <c r="E6" s="227" t="s">
         <v>447</v>
       </c>
-      <c r="F6" s="223">
-        <v>9375</v>
-      </c>
-      <c r="I6" s="228" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="228" t="s">
-        <v>314</v>
-      </c>
-      <c r="K6" s="224" t="s">
-        <v>332</v>
-      </c>
-      <c r="L6" s="229">
-        <v>45555</v>
-      </c>
-      <c r="M6" s="230">
-        <v>45677</v>
-      </c>
-      <c r="N6" s="228" t="s">
-        <v>407</v>
-      </c>
-      <c r="O6" s="231">
-        <v>3.7559999999999998</v>
-      </c>
-      <c r="P6" s="227" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q6" s="227" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="227">
-        <v>3731001</v>
-      </c>
-      <c r="B7" s="228" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="228" t="s">
-        <v>411</v>
-      </c>
-      <c r="D7" s="227">
-        <v>20545971853</v>
-      </c>
-      <c r="E7" s="227" t="s">
-        <v>447</v>
-      </c>
-      <c r="F7" s="223">
-        <v>9375</v>
-      </c>
-      <c r="I7" s="228" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="228" t="s">
-        <v>314</v>
-      </c>
-      <c r="K7" s="224" t="s">
-        <v>332</v>
-      </c>
-      <c r="L7" s="229">
-        <v>45555</v>
-      </c>
-      <c r="M7" s="230">
-        <v>45708</v>
-      </c>
-      <c r="N7" s="228" t="s">
-        <v>407</v>
-      </c>
-      <c r="O7" s="231">
-        <v>3.7559999999999998</v>
-      </c>
-      <c r="P7" s="227" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q7" s="227" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="227">
-        <v>3731001</v>
-      </c>
-      <c r="B8" s="228" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="228" t="s">
-        <v>411</v>
-      </c>
-      <c r="D8" s="227">
-        <v>20545971853</v>
-      </c>
-      <c r="E8" s="227" t="s">
-        <v>447</v>
-      </c>
-      <c r="F8" s="223">
-        <v>9375</v>
-      </c>
-      <c r="I8" s="228" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="228" t="s">
-        <v>314</v>
-      </c>
-      <c r="K8" s="224" t="s">
-        <v>332</v>
-      </c>
-      <c r="L8" s="229">
-        <v>45555</v>
-      </c>
-      <c r="M8" s="230">
-        <v>45736</v>
-      </c>
-      <c r="N8" s="228" t="s">
-        <v>407</v>
-      </c>
-      <c r="O8" s="231">
-        <v>3.7559999999999998</v>
-      </c>
-      <c r="P8" s="227" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q8" s="227" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="227">
-        <v>3731001</v>
-      </c>
-      <c r="B9" s="228" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="228" t="s">
-        <v>411</v>
-      </c>
-      <c r="D9" s="227">
-        <v>20545971853</v>
-      </c>
-      <c r="E9" s="227" t="s">
-        <v>447</v>
-      </c>
-      <c r="F9" s="223">
-        <v>9375</v>
-      </c>
-      <c r="I9" s="228" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="228" t="s">
-        <v>314</v>
-      </c>
-      <c r="K9" s="224" t="s">
-        <v>332</v>
-      </c>
-      <c r="L9" s="229">
-        <v>45555</v>
-      </c>
-      <c r="M9" s="230">
-        <v>45767</v>
-      </c>
-      <c r="N9" s="228" t="s">
-        <v>407</v>
-      </c>
-      <c r="O9" s="231">
-        <v>3.7559999999999998</v>
-      </c>
-      <c r="P9" s="227" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q9" s="227" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="227">
-        <v>3731001</v>
-      </c>
-      <c r="B10" s="228" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="228" t="s">
-        <v>411</v>
-      </c>
-      <c r="D10" s="227">
-        <v>20545971853</v>
-      </c>
-      <c r="E10" s="227" t="s">
-        <v>447</v>
-      </c>
-      <c r="F10" s="223">
-        <v>9375</v>
-      </c>
-      <c r="I10" s="228" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="228" t="s">
-        <v>314</v>
-      </c>
-      <c r="K10" s="224" t="s">
-        <v>332</v>
-      </c>
-      <c r="L10" s="229">
-        <v>45555</v>
-      </c>
-      <c r="M10" s="230">
-        <v>45797</v>
-      </c>
-      <c r="N10" s="228" t="s">
-        <v>407</v>
-      </c>
-      <c r="O10" s="231">
-        <v>3.7559999999999998</v>
-      </c>
-      <c r="P10" s="227" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q10" s="227" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="227">
-        <v>3731001</v>
-      </c>
-      <c r="B11" s="228" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="228" t="s">
-        <v>411</v>
-      </c>
-      <c r="D11" s="227">
-        <v>20545971853</v>
-      </c>
-      <c r="E11" s="227" t="s">
-        <v>447</v>
-      </c>
-      <c r="F11" s="223">
-        <v>9375</v>
-      </c>
-      <c r="I11" s="228" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="228" t="s">
-        <v>314</v>
-      </c>
-      <c r="K11" s="224" t="s">
-        <v>332</v>
-      </c>
-      <c r="L11" s="229">
-        <v>45555</v>
-      </c>
-      <c r="M11" s="230">
-        <v>45828</v>
-      </c>
-      <c r="N11" s="228" t="s">
-        <v>407</v>
-      </c>
-      <c r="O11" s="231">
-        <v>3.7559999999999998</v>
-      </c>
-      <c r="P11" s="227" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q11" s="227" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="227">
-        <v>3731001</v>
-      </c>
-      <c r="B12" s="228" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="228" t="s">
-        <v>411</v>
-      </c>
-      <c r="D12" s="227">
-        <v>20545971853</v>
-      </c>
-      <c r="E12" s="227" t="s">
-        <v>447</v>
-      </c>
-      <c r="F12" s="223">
-        <v>9375</v>
-      </c>
-      <c r="I12" s="228" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="228" t="s">
-        <v>314</v>
-      </c>
-      <c r="K12" s="224" t="s">
-        <v>332</v>
-      </c>
-      <c r="L12" s="229">
-        <v>45555</v>
-      </c>
-      <c r="M12" s="230">
-        <v>45858</v>
-      </c>
-      <c r="N12" s="228" t="s">
-        <v>407</v>
-      </c>
-      <c r="O12" s="231">
-        <v>3.7559999999999998</v>
-      </c>
-      <c r="P12" s="227" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q12" s="227" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="227">
-        <v>3731001</v>
-      </c>
-      <c r="B13" s="228" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="228" t="s">
-        <v>411</v>
-      </c>
-      <c r="D13" s="227">
-        <v>20545971853</v>
-      </c>
-      <c r="E13" s="227" t="s">
-        <v>447</v>
-      </c>
-      <c r="F13" s="223">
-        <v>9375</v>
-      </c>
-      <c r="I13" s="228" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="228" t="s">
-        <v>314</v>
-      </c>
-      <c r="K13" s="224" t="s">
-        <v>332</v>
-      </c>
-      <c r="L13" s="229">
-        <v>45555</v>
-      </c>
-      <c r="M13" s="230">
-        <v>45889</v>
-      </c>
-      <c r="N13" s="228" t="s">
-        <v>407</v>
-      </c>
-      <c r="O13" s="231">
-        <v>3.7559999999999998</v>
-      </c>
-      <c r="P13" s="227" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q13" s="227" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="227">
-        <v>4699003</v>
-      </c>
-      <c r="B14" s="228" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="228" t="s">
-        <v>411</v>
-      </c>
-      <c r="D14" s="227">
-        <v>20545971853</v>
-      </c>
-      <c r="E14" s="227" t="s">
-        <v>447</v>
-      </c>
-      <c r="G14" s="223">
-        <v>9375</v>
-      </c>
-      <c r="I14" s="228" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="228" t="s">
-        <v>314</v>
-      </c>
-      <c r="K14" s="224" t="s">
-        <v>332</v>
-      </c>
-      <c r="L14" s="229">
-        <v>45555</v>
-      </c>
-      <c r="M14" s="230">
-        <v>45555</v>
-      </c>
-      <c r="N14" s="228" t="s">
-        <v>407</v>
-      </c>
-      <c r="O14" s="231">
-        <v>3.7559999999999998</v>
-      </c>
-      <c r="P14" s="227" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q14" s="227" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="227">
-        <v>4699003</v>
-      </c>
-      <c r="B15" s="228" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="228" t="s">
-        <v>411</v>
-      </c>
-      <c r="D15" s="227">
-        <v>20545971853</v>
-      </c>
-      <c r="E15" s="227" t="s">
-        <v>447</v>
-      </c>
-      <c r="G15" s="223">
-        <v>9375</v>
-      </c>
-      <c r="I15" s="228" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="228" t="s">
-        <v>314</v>
-      </c>
-      <c r="K15" s="224" t="s">
-        <v>332</v>
-      </c>
-      <c r="L15" s="229">
-        <v>45555</v>
-      </c>
-      <c r="M15" s="230">
-        <v>45585</v>
-      </c>
-      <c r="N15" s="228" t="s">
-        <v>407</v>
-      </c>
-      <c r="O15" s="231">
-        <v>3.7559999999999998</v>
-      </c>
-      <c r="P15" s="227" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q15" s="227" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="227">
-        <v>4699003</v>
-      </c>
-      <c r="B16" s="228" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="228" t="s">
-        <v>411</v>
-      </c>
-      <c r="D16" s="227">
-        <v>20545971853</v>
-      </c>
-      <c r="E16" s="227" t="s">
-        <v>447</v>
-      </c>
-      <c r="G16" s="223">
-        <v>9375</v>
-      </c>
-      <c r="I16" s="228" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="228" t="s">
-        <v>314</v>
-      </c>
-      <c r="K16" s="224" t="s">
-        <v>332</v>
-      </c>
-      <c r="L16" s="229">
-        <v>45555</v>
-      </c>
-      <c r="M16" s="230">
-        <v>45616</v>
-      </c>
-      <c r="N16" s="228" t="s">
-        <v>407</v>
-      </c>
-      <c r="O16" s="231">
-        <v>3.7559999999999998</v>
-      </c>
-      <c r="P16" s="227" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q16" s="227" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="227">
-        <v>4699003</v>
-      </c>
-      <c r="B17" s="228" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="228" t="s">
-        <v>411</v>
-      </c>
-      <c r="D17" s="227">
-        <v>20545971853</v>
-      </c>
-      <c r="E17" s="227" t="s">
-        <v>447</v>
-      </c>
-      <c r="G17" s="223">
-        <v>9375</v>
-      </c>
-      <c r="I17" s="228" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="228" t="s">
-        <v>314</v>
-      </c>
-      <c r="K17" s="224" t="s">
-        <v>332</v>
-      </c>
-      <c r="L17" s="229">
-        <v>45555</v>
-      </c>
-      <c r="M17" s="230">
-        <v>45646</v>
-      </c>
-      <c r="N17" s="228" t="s">
-        <v>407</v>
-      </c>
-      <c r="O17" s="231">
-        <v>3.7559999999999998</v>
-      </c>
-      <c r="P17" s="227" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q17" s="227" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="227">
-        <v>4699003</v>
-      </c>
-      <c r="B18" s="228" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="228" t="s">
-        <v>411</v>
-      </c>
-      <c r="D18" s="227">
-        <v>20545971853</v>
-      </c>
-      <c r="E18" s="227" t="s">
-        <v>447</v>
-      </c>
-      <c r="G18" s="223">
-        <v>9375</v>
-      </c>
-      <c r="I18" s="228" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="228" t="s">
-        <v>314</v>
-      </c>
-      <c r="K18" s="224" t="s">
-        <v>332</v>
-      </c>
-      <c r="L18" s="229">
-        <v>45555</v>
-      </c>
-      <c r="M18" s="230">
-        <v>45677</v>
-      </c>
-      <c r="N18" s="228" t="s">
-        <v>407</v>
-      </c>
-      <c r="O18" s="231">
-        <v>3.7559999999999998</v>
-      </c>
-      <c r="P18" s="227" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q18" s="227" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="227">
-        <v>4699003</v>
-      </c>
-      <c r="B19" s="228" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="228" t="s">
-        <v>411</v>
-      </c>
-      <c r="D19" s="227">
-        <v>20545971853</v>
-      </c>
-      <c r="E19" s="227" t="s">
-        <v>447</v>
-      </c>
-      <c r="G19" s="223">
-        <v>9375</v>
-      </c>
-      <c r="I19" s="228" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="228" t="s">
-        <v>314</v>
-      </c>
-      <c r="K19" s="224" t="s">
-        <v>332</v>
-      </c>
-      <c r="L19" s="229">
-        <v>45555</v>
-      </c>
-      <c r="M19" s="230">
-        <v>45708</v>
-      </c>
-      <c r="N19" s="228" t="s">
-        <v>407</v>
-      </c>
-      <c r="O19" s="231">
-        <v>3.7559999999999998</v>
-      </c>
-      <c r="P19" s="227" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q19" s="227" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="227">
-        <v>4699003</v>
-      </c>
-      <c r="B20" s="228" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="228" t="s">
-        <v>411</v>
-      </c>
-      <c r="D20" s="227">
-        <v>20545971853</v>
-      </c>
-      <c r="E20" s="227" t="s">
-        <v>447</v>
-      </c>
-      <c r="G20" s="223">
-        <v>9375</v>
-      </c>
-      <c r="I20" s="228" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" s="228" t="s">
-        <v>314</v>
-      </c>
-      <c r="K20" s="224" t="s">
-        <v>332</v>
-      </c>
-      <c r="L20" s="229">
-        <v>45555</v>
-      </c>
-      <c r="M20" s="230">
-        <v>45736</v>
-      </c>
-      <c r="N20" s="228" t="s">
-        <v>407</v>
-      </c>
-      <c r="O20" s="231">
-        <v>3.7559999999999998</v>
-      </c>
-      <c r="P20" s="227" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q20" s="227" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="227">
-        <v>4699003</v>
-      </c>
-      <c r="B21" s="228" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="228" t="s">
-        <v>411</v>
-      </c>
-      <c r="D21" s="227">
-        <v>20545971853</v>
-      </c>
-      <c r="E21" s="227" t="s">
-        <v>447</v>
-      </c>
-      <c r="G21" s="223">
-        <v>9375</v>
-      </c>
-      <c r="I21" s="228" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="228" t="s">
-        <v>314</v>
-      </c>
-      <c r="K21" s="224" t="s">
-        <v>332</v>
-      </c>
-      <c r="L21" s="229">
-        <v>45555</v>
-      </c>
-      <c r="M21" s="230">
-        <v>45767</v>
-      </c>
-      <c r="N21" s="228" t="s">
-        <v>407</v>
-      </c>
-      <c r="O21" s="231">
-        <v>3.7559999999999998</v>
-      </c>
-      <c r="P21" s="227" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q21" s="227" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="227">
-        <v>4699003</v>
-      </c>
-      <c r="B22" s="228" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="228" t="s">
-        <v>411</v>
-      </c>
-      <c r="D22" s="227">
-        <v>20545971853</v>
-      </c>
-      <c r="E22" s="227" t="s">
-        <v>447</v>
-      </c>
-      <c r="G22" s="223">
-        <v>9375</v>
-      </c>
-      <c r="I22" s="228" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22" s="228" t="s">
-        <v>314</v>
-      </c>
-      <c r="K22" s="224" t="s">
-        <v>332</v>
-      </c>
-      <c r="L22" s="229">
-        <v>45555</v>
-      </c>
-      <c r="M22" s="230">
-        <v>45797</v>
-      </c>
-      <c r="N22" s="228" t="s">
-        <v>407</v>
-      </c>
-      <c r="O22" s="231">
-        <v>3.7559999999999998</v>
-      </c>
-      <c r="P22" s="227" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q22" s="227" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="227">
-        <v>4699003</v>
-      </c>
-      <c r="B23" s="228" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="228" t="s">
-        <v>411</v>
-      </c>
-      <c r="D23" s="227">
-        <v>20545971853</v>
-      </c>
-      <c r="E23" s="227" t="s">
-        <v>447</v>
-      </c>
-      <c r="G23" s="223">
-        <v>9375</v>
-      </c>
-      <c r="I23" s="228" t="s">
-        <v>26</v>
-      </c>
-      <c r="J23" s="228" t="s">
-        <v>314</v>
-      </c>
-      <c r="K23" s="224" t="s">
-        <v>332</v>
-      </c>
-      <c r="L23" s="229">
-        <v>45555</v>
-      </c>
-      <c r="M23" s="230">
-        <v>45828</v>
-      </c>
-      <c r="N23" s="228" t="s">
-        <v>407</v>
-      </c>
-      <c r="O23" s="231">
-        <v>3.7559999999999998</v>
-      </c>
-      <c r="P23" s="227" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q23" s="227" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="227">
-        <v>4699003</v>
-      </c>
-      <c r="B24" s="228" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="228" t="s">
-        <v>411</v>
-      </c>
-      <c r="D24" s="227">
-        <v>20545971853</v>
-      </c>
-      <c r="E24" s="227" t="s">
-        <v>447</v>
-      </c>
-      <c r="G24" s="223">
-        <v>9375</v>
-      </c>
-      <c r="I24" s="228" t="s">
-        <v>26</v>
-      </c>
-      <c r="J24" s="228" t="s">
-        <v>314</v>
-      </c>
-      <c r="K24" s="224" t="s">
-        <v>332</v>
-      </c>
-      <c r="L24" s="229">
-        <v>45555</v>
-      </c>
-      <c r="M24" s="230">
-        <v>45858</v>
-      </c>
-      <c r="N24" s="228" t="s">
-        <v>407</v>
-      </c>
-      <c r="O24" s="231">
-        <v>3.7559999999999998</v>
-      </c>
-      <c r="P24" s="227" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q24" s="227" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="227">
-        <v>4699003</v>
-      </c>
-      <c r="B25" s="228" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="228" t="s">
-        <v>411</v>
-      </c>
-      <c r="D25" s="227">
-        <v>20545971853</v>
-      </c>
-      <c r="E25" s="227" t="s">
-        <v>447</v>
-      </c>
-      <c r="G25" s="223">
-        <v>9375</v>
-      </c>
-      <c r="I25" s="228" t="s">
-        <v>26</v>
-      </c>
-      <c r="J25" s="228" t="s">
-        <v>314</v>
-      </c>
-      <c r="K25" s="224" t="s">
-        <v>332</v>
-      </c>
-      <c r="L25" s="229">
-        <v>45555</v>
-      </c>
-      <c r="M25" s="230">
-        <v>45889</v>
-      </c>
-      <c r="N25" s="228" t="s">
-        <v>407</v>
-      </c>
-      <c r="O25" s="231">
-        <v>3.7559999999999998</v>
-      </c>
-      <c r="P25" s="227" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q25" s="227" t="s">
-        <v>427</v>
+      <c r="F6" s="229">
+        <v>22293.21</v>
+      </c>
+      <c r="G6" s="229">
+        <v>0</v>
+      </c>
+      <c r="I6" s="227" t="s">
+        <v>347</v>
+      </c>
+      <c r="J6" s="227" t="s">
+        <v>449</v>
+      </c>
+      <c r="K6" s="228" t="s">
+        <v>466</v>
+      </c>
+      <c r="L6" s="230">
+        <v>45658</v>
+      </c>
+      <c r="M6" s="231">
+        <v>45658</v>
+      </c>
+      <c r="N6" s="227" t="s">
+        <v>405</v>
+      </c>
+      <c r="O6" s="232">
+        <v>3.77</v>
+      </c>
+      <c r="P6" s="226" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q6" s="226" t="s">
+        <v>426</v>
+      </c>
+      <c r="R6" s="233">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="S6" s="233" t="str">
+        <f>VLOOKUP(R6,Tablas!$E$11:F29,2,FALSE)</f>
+        <v>5-RUC</v>
+      </c>
+      <c r="T6" s="234">
+        <f t="shared" si="1"/>
+        <v>22293.21</v>
+      </c>
+      <c r="U6" s="234" t="str">
+        <f>VLOOKUP(V6,Tablas!A:B,2,FALSE)</f>
+        <v>1-FACTURA</v>
+      </c>
+      <c r="V6" s="226" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="43" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
@@ -5261,7 +4769,31 @@
           <x14:formula1>
             <xm:f>Tablas!$G$2</xm:f>
           </x14:formula1>
-          <xm:sqref>Q26:Q1048576</xm:sqref>
+          <xm:sqref>Q7:Q1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1431F948-E6C8-430E-AC8E-A98D7CC6BDD4}">
+          <x14:formula1>
+            <xm:f>Tablas!$B$2:$B$61</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{793EC5BA-BB18-4D18-A629-06304A707E76}">
+          <x14:formula1>
+            <xm:f>Tablas!$D$2:$D$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>N2:N6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{80974C92-A3F9-4040-88B8-BF3BB4F0D979}">
+          <x14:formula1>
+            <xm:f>Tablas!$G$2:$G$21</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q2:Q6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3537761F-DAEB-47D3-B76E-C142C7953599}">
+          <x14:formula1>
+            <xm:f>Tablas!$I$2:$I$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{78BC1A80-9ED0-4BD6-87CB-7933C92E0F41}">
           <x14:formula1>
@@ -5274,30 +4806,6 @@
             <xm:f>Tablas!$F$2:$F$9</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1431F948-E6C8-430E-AC8E-A98D7CC6BDD4}">
-          <x14:formula1>
-            <xm:f>Tablas!$B$2:$B$61</xm:f>
-          </x14:formula1>
-          <xm:sqref>I2:I25</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{793EC5BA-BB18-4D18-A629-06304A707E76}">
-          <x14:formula1>
-            <xm:f>Tablas!$D$2:$D$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>N2:N25</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{80974C92-A3F9-4040-88B8-BF3BB4F0D979}">
-          <x14:formula1>
-            <xm:f>Tablas!$G$2:$G$21</xm:f>
-          </x14:formula1>
-          <xm:sqref>Q2:Q25</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3537761F-DAEB-47D3-B76E-C142C7953599}">
-          <x14:formula1>
-            <xm:f>Tablas!$I$2:$I$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>H2:H25</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5316,7 +4824,7 @@
       <selection activeCell="O7" sqref="N7:O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="9" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
@@ -5337,7 +4845,7 @@
     <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5390,7 +4898,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="70" customFormat="1" ht="9">
+    <row r="2" spans="1:17" s="70" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="A2" s="24">
         <v>4699001</v>
       </c>
@@ -5439,7 +4947,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="70" customFormat="1" ht="18">
+    <row r="3" spans="1:17" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A3" s="73">
         <v>4699001</v>
       </c>
@@ -5488,7 +4996,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="70" customFormat="1" ht="18">
+    <row r="4" spans="1:17" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A4" s="73">
         <v>4699001</v>
       </c>
@@ -5537,7 +5045,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="72" customFormat="1" ht="18">
+    <row r="5" spans="1:17" s="72" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A5" s="74">
         <v>3731007</v>
       </c>
@@ -5586,7 +5094,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="70" customFormat="1" ht="18">
+    <row r="6" spans="1:17" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A6" s="73">
         <v>4699003</v>
       </c>
@@ -5635,7 +5143,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="96" customFormat="1" ht="9">
+    <row r="7" spans="1:17" s="96" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="A7" s="89">
         <v>4699001</v>
       </c>
@@ -5684,7 +5192,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="96" customFormat="1" ht="9">
+    <row r="8" spans="1:17" s="96" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="A8" s="89">
         <v>4699001</v>
       </c>
@@ -5733,7 +5241,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="96" customFormat="1" ht="9">
+    <row r="9" spans="1:17" s="96" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="A9" s="89">
         <v>4699001</v>
       </c>
@@ -5782,7 +5290,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="96" customFormat="1" ht="9">
+    <row r="10" spans="1:17" s="96" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="A10" s="89">
         <v>4699001</v>
       </c>
@@ -5831,7 +5339,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="96" customFormat="1" ht="9">
+    <row r="11" spans="1:17" s="96" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="A11" s="89">
         <v>4699001</v>
       </c>
@@ -5880,7 +5388,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="96" customFormat="1" ht="9">
+    <row r="12" spans="1:17" s="96" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="A12" s="89">
         <v>4699001</v>
       </c>
@@ -5929,7 +5437,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="96" customFormat="1" ht="9">
+    <row r="13" spans="1:17" s="96" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="A13" s="89">
         <v>4699001</v>
       </c>
@@ -5978,7 +5486,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="96" customFormat="1" ht="9">
+    <row r="14" spans="1:17" s="96" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="A14" s="89">
         <v>4699003</v>
       </c>
@@ -6027,7 +5535,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="96" customFormat="1" ht="9">
+    <row r="15" spans="1:17" s="96" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="A15" s="89">
         <v>4699003</v>
       </c>
@@ -6076,7 +5584,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="96" customFormat="1" ht="9">
+    <row r="16" spans="1:17" s="96" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="A16" s="89">
         <v>4699003</v>
       </c>
@@ -6125,7 +5633,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="18">
+    <row r="17" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="61">
         <v>4699001</v>
       </c>
@@ -6173,7 +5681,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="75">
         <v>4891001</v>
       </c>
@@ -6219,7 +5727,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D19" s="51"/>
       <c r="E19" s="51"/>
       <c r="F19" s="81"/>
@@ -6229,7 +5737,7 @@
       <c r="L19" s="52"/>
       <c r="M19" s="52"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D20" s="51"/>
       <c r="E20" s="51"/>
       <c r="F20" s="85"/>
@@ -6239,7 +5747,7 @@
       <c r="L20" s="52"/>
       <c r="M20" s="52"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D21" s="51"/>
       <c r="E21" s="51"/>
       <c r="F21" s="81"/>
@@ -6249,7 +5757,7 @@
       <c r="L21" s="52"/>
       <c r="M21" s="52"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D22" s="51"/>
       <c r="E22" s="51"/>
       <c r="F22" s="81"/>
@@ -6259,7 +5767,7 @@
       <c r="L22" s="52"/>
       <c r="M22" s="52"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D23" s="51"/>
       <c r="E23" s="51"/>
       <c r="F23" s="85"/>
@@ -6269,7 +5777,7 @@
       <c r="L23" s="52"/>
       <c r="M23" s="52"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D24" s="51"/>
       <c r="E24" s="51"/>
       <c r="F24" s="81"/>
@@ -6279,7 +5787,7 @@
       <c r="L24" s="52"/>
       <c r="M24" s="52"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D25" s="51"/>
       <c r="E25" s="51"/>
       <c r="F25" s="78"/>
@@ -6289,7 +5797,7 @@
       <c r="L25" s="52"/>
       <c r="M25" s="52"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D26" s="51"/>
       <c r="E26" s="51"/>
       <c r="F26" s="81"/>
@@ -6299,7 +5807,7 @@
       <c r="L26" s="52"/>
       <c r="M26" s="52"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D27" s="51"/>
       <c r="E27" s="51"/>
       <c r="F27" s="85"/>
@@ -6309,7 +5817,7 @@
       <c r="L27" s="52"/>
       <c r="M27" s="52"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D28" s="51"/>
       <c r="E28" s="51"/>
       <c r="F28" s="87"/>
@@ -6319,7 +5827,7 @@
       <c r="L28" s="52"/>
       <c r="M28" s="52"/>
     </row>
-    <row r="29" spans="1:18" s="1" customFormat="1">
+    <row r="29" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="D29" s="51"/>
       <c r="E29" s="51"/>
@@ -6334,7 +5842,7 @@
       <c r="Q29"/>
       <c r="R29"/>
     </row>
-    <row r="30" spans="1:18" s="1" customFormat="1">
+    <row r="30" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="D30" s="51"/>
       <c r="E30" s="51"/>
@@ -6349,7 +5857,7 @@
       <c r="Q30"/>
       <c r="R30"/>
     </row>
-    <row r="31" spans="1:18" s="1" customFormat="1">
+    <row r="31" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="D31" s="51"/>
       <c r="E31" s="51"/>
@@ -6364,7 +5872,7 @@
       <c r="Q31"/>
       <c r="R31"/>
     </row>
-    <row r="32" spans="1:18" s="1" customFormat="1">
+    <row r="32" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="D32" s="51"/>
       <c r="E32" s="51"/>
@@ -6379,7 +5887,7 @@
       <c r="Q32"/>
       <c r="R32"/>
     </row>
-    <row r="33" spans="1:18" s="1" customFormat="1">
+    <row r="33" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="D33" s="51"/>
       <c r="E33" s="51"/>
@@ -6394,7 +5902,7 @@
       <c r="Q33"/>
       <c r="R33"/>
     </row>
-    <row r="34" spans="1:18" s="1" customFormat="1">
+    <row r="34" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="D34" s="51"/>
       <c r="E34" s="51"/>
@@ -6409,7 +5917,7 @@
       <c r="Q34"/>
       <c r="R34"/>
     </row>
-    <row r="35" spans="1:18" s="1" customFormat="1">
+    <row r="35" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="D35" s="51"/>
       <c r="E35" s="51"/>
@@ -6424,7 +5932,7 @@
       <c r="Q35"/>
       <c r="R35"/>
     </row>
-    <row r="36" spans="1:18" s="1" customFormat="1">
+    <row r="36" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="D36" s="51"/>
       <c r="E36" s="51"/>
@@ -6439,7 +5947,7 @@
       <c r="Q36"/>
       <c r="R36"/>
     </row>
-    <row r="37" spans="1:18" s="1" customFormat="1">
+    <row r="37" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="D37" s="51"/>
       <c r="E37" s="51"/>
@@ -6454,7 +5962,7 @@
       <c r="Q37"/>
       <c r="R37"/>
     </row>
-    <row r="38" spans="1:18" s="1" customFormat="1">
+    <row r="38" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="D38" s="51"/>
       <c r="E38" s="51"/>
@@ -6469,7 +5977,7 @@
       <c r="Q38"/>
       <c r="R38"/>
     </row>
-    <row r="39" spans="1:18" s="1" customFormat="1">
+    <row r="39" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="D39" s="51"/>
       <c r="E39" s="51"/>
@@ -6538,7 +6046,7 @@
       <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="9"/>
     <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
@@ -6559,7 +6067,7 @@
     <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -6612,7 +6120,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="50" customFormat="1">
+    <row r="2" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>122</v>
       </c>
@@ -6659,7 +6167,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="50" customFormat="1">
+    <row r="3" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="56" t="s">
         <v>127</v>
       </c>
@@ -6706,7 +6214,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="50" customFormat="1">
+    <row r="4" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>122</v>
       </c>
@@ -6754,7 +6262,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="50" customFormat="1">
+    <row r="5" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>127</v>
       </c>
@@ -6802,7 +6310,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="50" customFormat="1">
+    <row r="6" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>122</v>
       </c>
@@ -6850,7 +6358,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="50" customFormat="1">
+    <row r="7" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>128</v>
       </c>
@@ -6952,7 +6460,7 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="9"/>
     <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
@@ -6973,7 +6481,7 @@
     <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -7026,7 +6534,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="50" customFormat="1">
+    <row r="2" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>80</v>
       </c>
@@ -7075,7 +6583,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="50" customFormat="1">
+    <row r="3" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>80</v>
       </c>
@@ -7124,7 +6632,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="50" customFormat="1">
+    <row r="4" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>80</v>
       </c>
@@ -7173,7 +6681,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>79</v>
       </c>
@@ -7220,7 +6728,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>79</v>
       </c>
@@ -7267,7 +6775,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>79</v>
       </c>
@@ -7314,7 +6822,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
         <v>80</v>
       </c>
@@ -7341,7 +6849,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G9" s="2">
         <f>13986.17/3.813</f>
         <v>3668.0225544190926</v>
@@ -7407,7 +6915,7 @@
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="9"/>
     <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
@@ -7428,7 +6936,7 @@
     <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -7481,7 +6989,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>80</v>
       </c>
@@ -7528,7 +7036,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>80</v>
       </c>
@@ -7575,7 +7083,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>80</v>
       </c>
@@ -7622,7 +7130,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>80</v>
       </c>
@@ -7669,7 +7177,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>80</v>
       </c>
@@ -7716,7 +7224,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>80</v>
       </c>
@@ -7763,7 +7271,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>80</v>
       </c>
@@ -7810,7 +7318,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>80</v>
       </c>
@@ -7857,7 +7365,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>80</v>
       </c>
@@ -7904,7 +7412,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>80</v>
       </c>
@@ -7951,7 +7459,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>80</v>
       </c>
@@ -7998,7 +7506,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>80</v>
       </c>
@@ -8045,7 +7553,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>80</v>
       </c>
@@ -8092,7 +7600,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>80</v>
       </c>
@@ -8139,7 +7647,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>80</v>
       </c>
@@ -8186,7 +7694,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>80</v>
       </c>
@@ -8233,7 +7741,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>80</v>
       </c>
@@ -8280,7 +7788,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>80</v>
       </c>
@@ -8327,7 +7835,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>80</v>
       </c>
@@ -8374,7 +7882,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>80</v>
       </c>
@@ -8421,7 +7929,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>80</v>
       </c>
@@ -8468,7 +7976,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>80</v>
       </c>
@@ -8515,7 +8023,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>80</v>
       </c>
@@ -8562,7 +8070,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>80</v>
       </c>
@@ -8609,7 +8117,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>80</v>
       </c>
@@ -8656,7 +8164,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>80</v>
       </c>
@@ -8703,7 +8211,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>80</v>
       </c>
@@ -8750,7 +8258,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>80</v>
       </c>
@@ -8797,7 +8305,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>80</v>
       </c>
@@ -8844,7 +8352,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>80</v>
       </c>
@@ -8891,7 +8399,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>80</v>
       </c>
@@ -8938,7 +8446,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>80</v>
       </c>
@@ -8985,7 +8493,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>80</v>
       </c>
@@ -9032,7 +8540,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>80</v>
       </c>
@@ -9079,7 +8587,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>80</v>
       </c>
@@ -9126,7 +8634,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>80</v>
       </c>
@@ -9173,7 +8681,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>80</v>
       </c>
@@ -9220,7 +8728,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:17" s="19" customFormat="1">
+    <row r="39" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>79</v>
       </c>
@@ -9269,7 +8777,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="19" customFormat="1">
+    <row r="40" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>79</v>
       </c>
@@ -9318,7 +8826,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="19" customFormat="1">
+    <row r="41" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>79</v>
       </c>
@@ -9367,7 +8875,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="19" customFormat="1">
+    <row r="42" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>79</v>
       </c>
@@ -9416,7 +8924,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:17" s="19" customFormat="1">
+    <row r="43" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>79</v>
       </c>
@@ -9465,7 +8973,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:17" s="19" customFormat="1">
+    <row r="44" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>79</v>
       </c>
@@ -9514,7 +9022,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>79</v>
       </c>
@@ -9561,7 +9069,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>79</v>
       </c>
@@ -9608,7 +9116,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>79</v>
       </c>
@@ -9655,7 +9163,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>79</v>
       </c>
@@ -9702,7 +9210,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>79</v>
       </c>
@@ -9749,7 +9257,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>79</v>
       </c>
@@ -9796,7 +9304,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>79</v>
       </c>
@@ -9843,7 +9351,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>79</v>
       </c>
@@ -9890,7 +9398,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>79</v>
       </c>
@@ -9937,7 +9445,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>79</v>
       </c>
@@ -9984,7 +9492,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>79</v>
       </c>
@@ -10031,7 +9539,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>79</v>
       </c>
@@ -10078,7 +9586,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>79</v>
       </c>
@@ -10125,7 +9633,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>79</v>
       </c>
@@ -10172,7 +9680,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>79</v>
       </c>
@@ -10219,7 +9727,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>79</v>
       </c>
@@ -10266,7 +9774,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>79</v>
       </c>
@@ -10313,7 +9821,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>79</v>
       </c>
@@ -10360,7 +9868,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>79</v>
       </c>
@@ -10407,7 +9915,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>79</v>
       </c>
@@ -10454,7 +9962,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>79</v>
       </c>
@@ -10501,7 +10009,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>79</v>
       </c>
@@ -10548,7 +10056,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>79</v>
       </c>
@@ -10595,7 +10103,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>79</v>
       </c>
@@ -10642,7 +10150,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>79</v>
       </c>
@@ -10689,7 +10197,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>79</v>
       </c>
@@ -10736,7 +10244,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>79</v>
       </c>
@@ -10783,7 +10291,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>79</v>
       </c>
@@ -10830,7 +10338,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>79</v>
       </c>
@@ -10877,7 +10385,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>79</v>
       </c>
@@ -10924,7 +10432,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>79</v>
       </c>
@@ -11025,7 +10533,7 @@
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="9"/>
     <col min="2" max="2" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -11043,7 +10551,7 @@
     <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -11096,7 +10604,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>37</v>
       </c>
@@ -11144,7 +10652,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>37</v>
       </c>
@@ -11192,7 +10700,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>37</v>
       </c>
@@ -11240,7 +10748,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>37</v>
       </c>
@@ -11288,7 +10796,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>37</v>
       </c>
@@ -11335,7 +10843,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>37</v>
       </c>
@@ -11382,7 +10890,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="12.95" customHeight="1">
+    <row r="8" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>73</v>
       </c>
@@ -11430,7 +10938,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="14.1" customHeight="1">
+    <row r="9" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>55</v>
       </c>
@@ -11478,7 +10986,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="14.1" customHeight="1">
+    <row r="10" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>37</v>
       </c>
@@ -11525,7 +11033,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="14.1" customHeight="1">
+    <row r="11" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>73</v>
       </c>
@@ -11573,7 +11081,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>55</v>
       </c>
@@ -11621,7 +11129,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>37</v>
       </c>
@@ -11668,7 +11176,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>73</v>
       </c>
@@ -11716,7 +11224,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>55</v>
       </c>
@@ -11764,7 +11272,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>37</v>
       </c>
@@ -11811,7 +11319,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>73</v>
       </c>
@@ -11859,7 +11367,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>55</v>
       </c>
@@ -11907,7 +11415,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>37</v>
       </c>
@@ -11954,7 +11462,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>74</v>
       </c>
@@ -12001,7 +11509,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>74</v>
       </c>
@@ -12048,7 +11556,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>67</v>
       </c>
@@ -12095,7 +11603,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>71</v>
       </c>
@@ -12142,7 +11650,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>71</v>
       </c>
@@ -12189,28 +11697,28 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
     </row>
   </sheetData>
@@ -12258,576 +11766,667 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:I72"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A28" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="9.9499999999999993" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="233"/>
-    <col min="2" max="2" width="57" style="234" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="233"/>
-    <col min="4" max="4" width="7.7109375" style="233" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="233"/>
-    <col min="6" max="6" width="19.28515625" style="233" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.28515625" style="233" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="233"/>
-    <col min="9" max="9" width="16.42578125" style="233" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="233"/>
+    <col min="1" max="1" width="3.140625" style="226" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" style="242" customWidth="1"/>
+    <col min="3" max="3" width="2.42578125" style="226" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="226" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" style="226" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="226" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" style="226" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.42578125" style="226" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="226" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="226"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="9.9499999999999993" customHeight="1">
-      <c r="B1" s="236" t="s">
+    <row r="1" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="223" t="s">
+        <v>473</v>
+      </c>
+      <c r="B1" s="223" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" s="242"/>
+      <c r="D1" s="224" t="s">
+        <v>343</v>
+      </c>
+      <c r="F1" s="224" t="s">
+        <v>332</v>
+      </c>
+      <c r="G1" s="224" t="s">
+        <v>415</v>
+      </c>
+      <c r="I1" s="224" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="226" t="s">
+        <v>467</v>
+      </c>
+      <c r="B2" s="242" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="242"/>
+      <c r="D2" s="226" t="s">
+        <v>405</v>
+      </c>
+      <c r="F2" s="226" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="243" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="226" t="s">
+        <v>468</v>
+      </c>
+      <c r="B3" s="242" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="242"/>
+      <c r="D3" s="226" t="s">
+        <v>406</v>
+      </c>
+      <c r="F3" s="226" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="243" t="s">
+        <v>426</v>
+      </c>
+      <c r="I3" s="226" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="226" t="s">
+        <v>459</v>
+      </c>
+      <c r="B4" s="242" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="242"/>
+      <c r="F4" s="226" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="226" t="s">
+        <v>427</v>
+      </c>
+      <c r="I4" s="226" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="226" t="s">
+        <v>454</v>
+      </c>
+      <c r="B5" s="242" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="242"/>
+      <c r="F5" s="226" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="226" t="s">
+        <v>428</v>
+      </c>
+      <c r="I5" s="226" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="226" t="s">
+        <v>458</v>
+      </c>
+      <c r="B6" s="242" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="242"/>
+      <c r="F6" s="226" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="226" t="s">
+        <v>429</v>
+      </c>
+      <c r="I6" s="226" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="226" t="s">
+        <v>457</v>
+      </c>
+      <c r="B7" s="242" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="242"/>
+      <c r="F7" s="226" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="226" t="s">
+        <v>430</v>
+      </c>
+      <c r="I7" s="226" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="226" t="s">
+        <v>445</v>
+      </c>
+      <c r="B8" s="242" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="242"/>
+      <c r="F8" s="226" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="226" t="s">
+        <v>431</v>
+      </c>
+      <c r="I8" s="226" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="242" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="242"/>
+      <c r="F9" s="226" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="226" t="s">
+        <v>432</v>
+      </c>
+      <c r="I9" s="226" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="242" t="s">
+        <v>356</v>
+      </c>
+      <c r="C10" s="242"/>
+      <c r="G10" s="226" t="s">
+        <v>433</v>
+      </c>
+      <c r="I10" s="226" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="242" t="s">
+        <v>357</v>
+      </c>
+      <c r="C11" s="242"/>
+      <c r="D11" s="244" t="s">
+        <v>460</v>
+      </c>
+      <c r="E11" s="244"/>
+      <c r="F11" s="224" t="s">
+        <v>416</v>
+      </c>
+      <c r="G11" s="226" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="242" t="s">
+        <v>358</v>
+      </c>
+      <c r="C12" s="242"/>
+      <c r="E12" s="226">
+        <v>8</v>
+      </c>
+      <c r="F12" s="226" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="226" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="226" t="s">
+        <v>456</v>
+      </c>
+      <c r="B13" s="242" t="s">
+        <v>359</v>
+      </c>
+      <c r="C13" s="242"/>
+      <c r="E13" s="226">
+        <v>9</v>
+      </c>
+      <c r="F13" s="226" t="s">
+        <v>407</v>
+      </c>
+      <c r="G13" s="226" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="242" t="s">
+        <v>360</v>
+      </c>
+      <c r="C14" s="242"/>
+      <c r="F14" s="226" t="s">
+        <v>408</v>
+      </c>
+      <c r="G14" s="226" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="242" t="s">
+        <v>361</v>
+      </c>
+      <c r="C15" s="242"/>
+      <c r="E15" s="226">
+        <v>11</v>
+      </c>
+      <c r="F15" s="226" t="s">
+        <v>409</v>
+      </c>
+      <c r="G15" s="226" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="242" t="s">
+        <v>362</v>
+      </c>
+      <c r="C16" s="242"/>
+      <c r="E16" s="226">
+        <v>1</v>
+      </c>
+      <c r="F16" s="226" t="s">
+        <v>410</v>
+      </c>
+      <c r="G16" s="226" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="242" t="s">
+        <v>363</v>
+      </c>
+      <c r="C17" s="242"/>
+      <c r="F17" s="226" t="s">
+        <v>411</v>
+      </c>
+      <c r="G17" s="226" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="242" t="s">
+        <v>364</v>
+      </c>
+      <c r="C18" s="242"/>
+      <c r="F18" s="226" t="s">
+        <v>412</v>
+      </c>
+      <c r="G18" s="226" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="226" t="s">
+        <v>455</v>
+      </c>
+      <c r="B19" s="242" t="s">
+        <v>347</v>
+      </c>
+      <c r="C19" s="242"/>
+      <c r="E19" s="226">
+        <v>10</v>
+      </c>
+      <c r="F19" s="226" t="s">
+        <v>410</v>
+      </c>
+      <c r="G19" s="226" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="226" t="s">
+        <v>450</v>
+      </c>
+      <c r="B20" s="242" t="s">
+        <v>347</v>
+      </c>
+      <c r="C20" s="242"/>
+      <c r="G20" s="226" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="242" t="s">
+        <v>365</v>
+      </c>
+      <c r="C21" s="242"/>
+      <c r="G21" s="226" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="242" t="s">
+        <v>366</v>
+      </c>
+      <c r="C22" s="242"/>
+    </row>
+    <row r="23" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="242" t="s">
+        <v>367</v>
+      </c>
+      <c r="C23" s="242"/>
+    </row>
+    <row r="24" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="242" t="s">
+        <v>368</v>
+      </c>
+      <c r="C24" s="242"/>
+    </row>
+    <row r="25" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="242" t="s">
+        <v>369</v>
+      </c>
+      <c r="C25" s="242"/>
+    </row>
+    <row r="26" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="242" t="s">
+        <v>370</v>
+      </c>
+      <c r="C26" s="242"/>
+    </row>
+    <row r="27" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="242" t="s">
+        <v>371</v>
+      </c>
+      <c r="C27" s="242"/>
+    </row>
+    <row r="28" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="242" t="s">
+        <v>372</v>
+      </c>
+      <c r="C28" s="242"/>
+    </row>
+    <row r="29" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="242" t="s">
+        <v>373</v>
+      </c>
+      <c r="C29" s="242"/>
+    </row>
+    <row r="30" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="242" t="s">
+        <v>374</v>
+      </c>
+      <c r="C30" s="242"/>
+    </row>
+    <row r="31" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="226" t="s">
+        <v>453</v>
+      </c>
+      <c r="B31" s="242" t="s">
         <v>348</v>
       </c>
-      <c r="C1" s="234"/>
-      <c r="D1" s="237" t="s">
-        <v>345</v>
-      </c>
-      <c r="F1" s="237" t="s">
-        <v>334</v>
-      </c>
-      <c r="G1" s="237" t="s">
-        <v>417</v>
-      </c>
-      <c r="I1" s="237" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9" ht="9.9499999999999993" customHeight="1">
-      <c r="B2" s="234" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="234"/>
-      <c r="D2" s="233" t="s">
-        <v>407</v>
-      </c>
-      <c r="F2" s="233" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="241" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="9.9499999999999993" customHeight="1">
-      <c r="B3" s="234" t="s">
+      <c r="C31" s="242"/>
+    </row>
+    <row r="32" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="226" t="s">
+        <v>469</v>
+      </c>
+      <c r="B32" s="242" t="s">
+        <v>375</v>
+      </c>
+      <c r="C32" s="242"/>
+    </row>
+    <row r="33" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="242" t="s">
+        <v>376</v>
+      </c>
+      <c r="C33" s="242"/>
+    </row>
+    <row r="34" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="242" t="s">
+        <v>377</v>
+      </c>
+      <c r="C34" s="242"/>
+    </row>
+    <row r="35" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="242" t="s">
+        <v>378</v>
+      </c>
+      <c r="C35" s="242"/>
+    </row>
+    <row r="36" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="242" t="s">
+        <v>379</v>
+      </c>
+      <c r="C36" s="242"/>
+    </row>
+    <row r="37" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="242" t="s">
+        <v>380</v>
+      </c>
+      <c r="C37" s="242"/>
+    </row>
+    <row r="38" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="242" t="s">
+        <v>381</v>
+      </c>
+      <c r="C38" s="242"/>
+    </row>
+    <row r="39" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="242" t="s">
+        <v>382</v>
+      </c>
+      <c r="C39" s="242"/>
+    </row>
+    <row r="40" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="226" t="s">
+        <v>451</v>
+      </c>
+      <c r="B40" s="242" t="s">
         <v>349</v>
       </c>
-      <c r="C3" s="234"/>
-      <c r="D3" s="233" t="s">
-        <v>408</v>
-      </c>
-      <c r="F3" s="233" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="235" t="s">
-        <v>428</v>
-      </c>
-      <c r="I3" s="233" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="9.9499999999999993" customHeight="1">
-      <c r="B4" s="234" t="s">
+      <c r="C40" s="242"/>
+    </row>
+    <row r="41" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="242" t="s">
+        <v>383</v>
+      </c>
+      <c r="C41" s="242"/>
+    </row>
+    <row r="42" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="242" t="s">
+        <v>384</v>
+      </c>
+      <c r="C42" s="242"/>
+    </row>
+    <row r="43" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="242" t="s">
+        <v>385</v>
+      </c>
+      <c r="C43" s="242"/>
+    </row>
+    <row r="44" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="242" t="s">
+        <v>386</v>
+      </c>
+      <c r="C44" s="242"/>
+    </row>
+    <row r="45" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="242" t="s">
+        <v>387</v>
+      </c>
+      <c r="C45" s="242"/>
+    </row>
+    <row r="46" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="242" t="s">
+        <v>388</v>
+      </c>
+      <c r="C46" s="242"/>
+    </row>
+    <row r="47" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="242" t="s">
+        <v>389</v>
+      </c>
+      <c r="C47" s="242"/>
+    </row>
+    <row r="48" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="242" t="s">
+        <v>390</v>
+      </c>
+      <c r="C48" s="242"/>
+    </row>
+    <row r="49" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="242" t="s">
         <v>350</v>
       </c>
-      <c r="C4" s="234"/>
-      <c r="F4" s="233" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="233" t="s">
-        <v>429</v>
-      </c>
-      <c r="I4" s="233" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="9.9499999999999993" customHeight="1">
-      <c r="B5" s="234" t="s">
+      <c r="C49" s="242"/>
+    </row>
+    <row r="50" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="242" t="s">
+        <v>391</v>
+      </c>
+      <c r="C50" s="242"/>
+    </row>
+    <row r="51" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="242" t="s">
+        <v>392</v>
+      </c>
+      <c r="C51" s="242"/>
+    </row>
+    <row r="52" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="242" t="s">
+        <v>393</v>
+      </c>
+      <c r="C52" s="242"/>
+    </row>
+    <row r="53" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="242" t="s">
+        <v>394</v>
+      </c>
+      <c r="C53" s="242"/>
+    </row>
+    <row r="54" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="242" t="s">
+        <v>395</v>
+      </c>
+      <c r="C54" s="242"/>
+    </row>
+    <row r="55" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="242" t="s">
+        <v>396</v>
+      </c>
+      <c r="C55" s="242"/>
+    </row>
+    <row r="56" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="242" t="s">
+        <v>397</v>
+      </c>
+      <c r="C56" s="242"/>
+    </row>
+    <row r="57" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="242" t="s">
         <v>351</v>
       </c>
-      <c r="C5" s="234"/>
-      <c r="F5" s="233" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="233" t="s">
-        <v>430</v>
-      </c>
-      <c r="I5" s="233" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="9.9499999999999993" customHeight="1">
-      <c r="B6" s="234" t="s">
+      <c r="C57" s="242"/>
+    </row>
+    <row r="58" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="242" t="s">
         <v>352</v>
       </c>
-      <c r="C6" s="234"/>
-      <c r="F6" s="233" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="233" t="s">
-        <v>431</v>
-      </c>
-      <c r="I6" s="233" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="9.9499999999999993" customHeight="1">
-      <c r="B7" s="234" t="s">
+      <c r="C58" s="242"/>
+    </row>
+    <row r="59" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="226" t="s">
+        <v>452</v>
+      </c>
+      <c r="B59" s="242" t="s">
         <v>353</v>
       </c>
-      <c r="C7" s="234"/>
-      <c r="F7" s="233" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="233" t="s">
-        <v>432</v>
-      </c>
-      <c r="I7" s="233" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="9.9499999999999993" customHeight="1">
-      <c r="B8" s="234" t="s">
+      <c r="C59" s="242"/>
+    </row>
+    <row r="60" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="242" t="s">
+        <v>398</v>
+      </c>
+      <c r="C60" s="242"/>
+    </row>
+    <row r="61" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="242" t="s">
+        <v>399</v>
+      </c>
+      <c r="C61" s="242"/>
+    </row>
+    <row r="62" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="242" t="s">
         <v>354</v>
       </c>
-      <c r="C8" s="234"/>
-      <c r="F8" s="233" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="233" t="s">
-        <v>433</v>
-      </c>
-      <c r="I8" s="233" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="9.9499999999999993" customHeight="1">
-      <c r="B9" s="234" t="s">
+      <c r="C62" s="242"/>
+    </row>
+    <row r="63" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="242" t="s">
+        <v>400</v>
+      </c>
+      <c r="C63" s="242"/>
+    </row>
+    <row r="64" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="242" t="s">
+        <v>401</v>
+      </c>
+      <c r="C64" s="242"/>
+    </row>
+    <row r="65" spans="2:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="242" t="s">
+        <v>402</v>
+      </c>
+      <c r="C65" s="242"/>
+    </row>
+    <row r="66" spans="2:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="242" t="s">
+        <v>404</v>
+      </c>
+      <c r="C66" s="242"/>
+    </row>
+    <row r="67" spans="2:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="242" t="s">
+        <v>403</v>
+      </c>
+      <c r="C67" s="242"/>
+    </row>
+    <row r="68" spans="2:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="242" t="s">
         <v>355</v>
       </c>
-      <c r="C9" s="234"/>
-      <c r="F9" s="233" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="233" t="s">
-        <v>434</v>
-      </c>
-      <c r="I9" s="233" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="9.9499999999999993" customHeight="1">
-      <c r="B10" s="234" t="s">
-        <v>356</v>
-      </c>
-      <c r="C10" s="234"/>
-      <c r="G10" s="233" t="s">
-        <v>435</v>
-      </c>
-      <c r="I10" s="233" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="9.9499999999999993" customHeight="1">
-      <c r="B11" s="234" t="s">
-        <v>357</v>
-      </c>
-      <c r="C11" s="234"/>
-      <c r="F11" s="237" t="s">
-        <v>418</v>
-      </c>
-      <c r="G11" s="233" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="9.9499999999999993" customHeight="1">
-      <c r="B12" s="234" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="234"/>
-      <c r="F12" s="233" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="233" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="9.9499999999999993" customHeight="1">
-      <c r="B13" s="234" t="s">
-        <v>358</v>
-      </c>
-      <c r="C13" s="234"/>
-      <c r="F13" s="233" t="s">
-        <v>409</v>
-      </c>
-      <c r="G13" s="233" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="9.9499999999999993" customHeight="1">
-      <c r="B14" s="234" t="s">
-        <v>359</v>
-      </c>
-      <c r="C14" s="234"/>
-      <c r="F14" s="233" t="s">
-        <v>410</v>
-      </c>
-      <c r="G14" s="233" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="9.9499999999999993" customHeight="1">
-      <c r="B15" s="234" t="s">
-        <v>360</v>
-      </c>
-      <c r="C15" s="234"/>
-      <c r="F15" s="233" t="s">
-        <v>411</v>
-      </c>
-      <c r="G15" s="233" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="9.9499999999999993" customHeight="1">
-      <c r="B16" s="234" t="s">
-        <v>361</v>
-      </c>
-      <c r="C16" s="234"/>
-      <c r="F16" s="233" t="s">
-        <v>412</v>
-      </c>
-      <c r="G16" s="233" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="9.9499999999999993" customHeight="1">
-      <c r="B17" s="234" t="s">
-        <v>362</v>
-      </c>
-      <c r="C17" s="234"/>
-      <c r="F17" s="233" t="s">
-        <v>413</v>
-      </c>
-      <c r="G17" s="233" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="9.9499999999999993" customHeight="1">
-      <c r="B18" s="234" t="s">
-        <v>363</v>
-      </c>
-      <c r="C18" s="234"/>
-      <c r="F18" s="233" t="s">
-        <v>414</v>
-      </c>
-      <c r="G18" s="233" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="9.9499999999999993" customHeight="1">
-      <c r="B19" s="234" t="s">
-        <v>364</v>
-      </c>
-      <c r="C19" s="234"/>
-      <c r="G19" s="233" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="9.9499999999999993" customHeight="1">
-      <c r="B20" s="234" t="s">
-        <v>365</v>
-      </c>
-      <c r="C20" s="234"/>
-      <c r="G20" s="233" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="9.9499999999999993" customHeight="1">
-      <c r="B21" s="234" t="s">
-        <v>366</v>
-      </c>
-      <c r="C21" s="234"/>
-      <c r="G21" s="233" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="9.9499999999999993" customHeight="1">
-      <c r="B22" s="234" t="s">
-        <v>367</v>
-      </c>
-      <c r="C22" s="234"/>
-    </row>
-    <row r="23" spans="2:7" ht="9.9499999999999993" customHeight="1">
-      <c r="B23" s="234" t="s">
-        <v>368</v>
-      </c>
-      <c r="C23" s="234"/>
-    </row>
-    <row r="24" spans="2:7" ht="9.9499999999999993" customHeight="1">
-      <c r="B24" s="234" t="s">
-        <v>369</v>
-      </c>
-      <c r="C24" s="234"/>
-    </row>
-    <row r="25" spans="2:7" ht="9.9499999999999993" customHeight="1">
-      <c r="B25" s="234" t="s">
-        <v>370</v>
-      </c>
-      <c r="C25" s="234"/>
-    </row>
-    <row r="26" spans="2:7" ht="9.9499999999999993" customHeight="1">
-      <c r="B26" s="234" t="s">
-        <v>371</v>
-      </c>
-      <c r="C26" s="234"/>
-    </row>
-    <row r="27" spans="2:7" ht="9.9499999999999993" customHeight="1">
-      <c r="B27" s="234" t="s">
-        <v>372</v>
-      </c>
-      <c r="C27" s="234"/>
-    </row>
-    <row r="28" spans="2:7" ht="9.9499999999999993" customHeight="1">
-      <c r="B28" s="234" t="s">
-        <v>373</v>
-      </c>
-      <c r="C28" s="234"/>
-    </row>
-    <row r="29" spans="2:7" ht="9.9499999999999993" customHeight="1">
-      <c r="B29" s="234" t="s">
-        <v>374</v>
-      </c>
-      <c r="C29" s="234"/>
-    </row>
-    <row r="30" spans="2:7" ht="9.9499999999999993" customHeight="1">
-      <c r="B30" s="234" t="s">
-        <v>375</v>
-      </c>
-      <c r="C30" s="234"/>
-    </row>
-    <row r="31" spans="2:7" ht="9.9499999999999993" customHeight="1">
-      <c r="B31" s="234" t="s">
-        <v>376</v>
-      </c>
-      <c r="C31" s="234"/>
-    </row>
-    <row r="32" spans="2:7" ht="9.9499999999999993" customHeight="1">
-      <c r="B32" s="234" t="s">
-        <v>377</v>
-      </c>
-      <c r="C32" s="234"/>
-    </row>
-    <row r="33" spans="2:3" ht="9.9499999999999993" customHeight="1">
-      <c r="B33" s="234" t="s">
-        <v>378</v>
-      </c>
-      <c r="C33" s="234"/>
-    </row>
-    <row r="34" spans="2:3" ht="9.9499999999999993" customHeight="1">
-      <c r="B34" s="234" t="s">
-        <v>379</v>
-      </c>
-      <c r="C34" s="234"/>
-    </row>
-    <row r="35" spans="2:3" ht="9.9499999999999993" customHeight="1">
-      <c r="B35" s="234" t="s">
-        <v>380</v>
-      </c>
-      <c r="C35" s="234"/>
-    </row>
-    <row r="36" spans="2:3" ht="9.9499999999999993" customHeight="1">
-      <c r="B36" s="234" t="s">
-        <v>381</v>
-      </c>
-      <c r="C36" s="234"/>
-    </row>
-    <row r="37" spans="2:3" ht="9.9499999999999993" customHeight="1">
-      <c r="B37" s="234" t="s">
-        <v>382</v>
-      </c>
-      <c r="C37" s="234"/>
-    </row>
-    <row r="38" spans="2:3" ht="9.9499999999999993" customHeight="1">
-      <c r="B38" s="234" t="s">
-        <v>383</v>
-      </c>
-      <c r="C38" s="234"/>
-    </row>
-    <row r="39" spans="2:3" ht="9.9499999999999993" customHeight="1">
-      <c r="B39" s="234" t="s">
-        <v>384</v>
-      </c>
-      <c r="C39" s="234"/>
-    </row>
-    <row r="40" spans="2:3" ht="9.9499999999999993" customHeight="1">
-      <c r="B40" s="234" t="s">
-        <v>385</v>
-      </c>
-      <c r="C40" s="234"/>
-    </row>
-    <row r="41" spans="2:3" ht="9.9499999999999993" customHeight="1">
-      <c r="B41" s="234" t="s">
-        <v>386</v>
-      </c>
-      <c r="C41" s="234"/>
-    </row>
-    <row r="42" spans="2:3" ht="9.9499999999999993" customHeight="1">
-      <c r="B42" s="234" t="s">
-        <v>387</v>
-      </c>
-      <c r="C42" s="234"/>
-    </row>
-    <row r="43" spans="2:3" ht="9.9499999999999993" customHeight="1">
-      <c r="B43" s="234" t="s">
-        <v>388</v>
-      </c>
-      <c r="C43" s="234"/>
-    </row>
-    <row r="44" spans="2:3" ht="9.9499999999999993" customHeight="1">
-      <c r="B44" s="234" t="s">
-        <v>389</v>
-      </c>
-      <c r="C44" s="234"/>
-    </row>
-    <row r="45" spans="2:3" ht="9.9499999999999993" customHeight="1">
-      <c r="B45" s="234" t="s">
-        <v>390</v>
-      </c>
-      <c r="C45" s="234"/>
-    </row>
-    <row r="46" spans="2:3" ht="9.9499999999999993" customHeight="1">
-      <c r="B46" s="234" t="s">
-        <v>391</v>
-      </c>
-      <c r="C46" s="234"/>
-    </row>
-    <row r="47" spans="2:3" ht="9.9499999999999993" customHeight="1">
-      <c r="B47" s="234" t="s">
-        <v>392</v>
-      </c>
-      <c r="C47" s="234"/>
-    </row>
-    <row r="48" spans="2:3" ht="9.9499999999999993" customHeight="1">
-      <c r="B48" s="234" t="s">
-        <v>393</v>
-      </c>
-      <c r="C48" s="234"/>
-    </row>
-    <row r="49" spans="2:3" ht="9.9499999999999993" customHeight="1">
-      <c r="B49" s="234" t="s">
-        <v>394</v>
-      </c>
-      <c r="C49" s="234"/>
-    </row>
-    <row r="50" spans="2:3" ht="9.9499999999999993" customHeight="1">
-      <c r="B50" s="234" t="s">
-        <v>395</v>
-      </c>
-      <c r="C50" s="234"/>
-    </row>
-    <row r="51" spans="2:3" ht="9.9499999999999993" customHeight="1">
-      <c r="B51" s="234" t="s">
-        <v>396</v>
-      </c>
-      <c r="C51" s="234"/>
-    </row>
-    <row r="52" spans="2:3" ht="9.9499999999999993" customHeight="1">
-      <c r="B52" s="234" t="s">
-        <v>397</v>
-      </c>
-      <c r="C52" s="234"/>
-    </row>
-    <row r="53" spans="2:3" ht="9.9499999999999993" customHeight="1">
-      <c r="B53" s="234" t="s">
-        <v>398</v>
-      </c>
-      <c r="C53" s="234"/>
-    </row>
-    <row r="54" spans="2:3" ht="9.9499999999999993" customHeight="1">
-      <c r="B54" s="234" t="s">
-        <v>399</v>
-      </c>
-      <c r="C54" s="234"/>
-    </row>
-    <row r="55" spans="2:3" ht="9.9499999999999993" customHeight="1">
-      <c r="B55" s="234" t="s">
-        <v>400</v>
-      </c>
-      <c r="C55" s="234"/>
-    </row>
-    <row r="56" spans="2:3" ht="9.9499999999999993" customHeight="1">
-      <c r="B56" s="234" t="s">
-        <v>401</v>
-      </c>
-      <c r="C56" s="234"/>
-    </row>
-    <row r="57" spans="2:3" ht="9.9499999999999993" customHeight="1">
-      <c r="B57" s="234" t="s">
-        <v>402</v>
-      </c>
-      <c r="C57" s="234"/>
-    </row>
-    <row r="58" spans="2:3" ht="9.9499999999999993" customHeight="1">
-      <c r="B58" s="234" t="s">
-        <v>403</v>
-      </c>
-      <c r="C58" s="234"/>
-    </row>
-    <row r="59" spans="2:3" ht="9.9499999999999993" customHeight="1">
-      <c r="B59" s="234" t="s">
-        <v>404</v>
-      </c>
-      <c r="C59" s="234"/>
-    </row>
-    <row r="60" spans="2:3" ht="9.9499999999999993" customHeight="1">
-      <c r="B60" s="234" t="s">
-        <v>405</v>
-      </c>
-      <c r="C60" s="234"/>
-    </row>
-    <row r="61" spans="2:3" ht="9.9499999999999993" customHeight="1">
-      <c r="B61" s="234" t="s">
-        <v>406</v>
-      </c>
-      <c r="C61" s="234"/>
-    </row>
-    <row r="62" spans="2:3" ht="9.9499999999999993" customHeight="1">
-      <c r="C62" s="234"/>
-    </row>
-    <row r="63" spans="2:3" ht="9.9499999999999993" customHeight="1">
-      <c r="C63" s="234"/>
-    </row>
-    <row r="64" spans="2:3" ht="9.9499999999999993" customHeight="1">
-      <c r="C64" s="234"/>
-    </row>
-    <row r="65" spans="3:3" ht="9.9499999999999993" customHeight="1">
-      <c r="C65" s="234"/>
-    </row>
-    <row r="66" spans="3:3" ht="9.9499999999999993" customHeight="1">
-      <c r="C66" s="234"/>
-    </row>
-    <row r="67" spans="3:3" ht="9.9499999999999993" customHeight="1">
-      <c r="C67" s="234"/>
-    </row>
-    <row r="68" spans="3:3" ht="9.9499999999999993" customHeight="1">
-      <c r="C68" s="234"/>
-    </row>
-    <row r="69" spans="3:3" ht="9.9499999999999993" customHeight="1">
-      <c r="C69" s="234"/>
-    </row>
-    <row r="70" spans="3:3" ht="9.9499999999999993" customHeight="1">
-      <c r="C70" s="234"/>
-    </row>
-    <row r="71" spans="3:3" ht="9.9499999999999993" customHeight="1">
-      <c r="C71" s="234"/>
-    </row>
-    <row r="72" spans="3:3" ht="9.9499999999999993" customHeight="1">
-      <c r="C72" s="234"/>
+      <c r="C68" s="242"/>
+    </row>
+    <row r="69" spans="2:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C69" s="242"/>
+    </row>
+    <row r="70" spans="2:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C70" s="242"/>
+    </row>
+    <row r="71" spans="2:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C71" s="242"/>
+    </row>
+    <row r="72" spans="2:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C72" s="242"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D11:E11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12843,7 +12442,7 @@
       <selection activeCell="A8" sqref="A8:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="9" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
@@ -12863,7 +12462,7 @@
     <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -12916,7 +12515,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="129">
         <v>3731002</v>
       </c>
@@ -12963,7 +12562,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="129">
         <v>3731002</v>
       </c>
@@ -13010,7 +12609,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="129">
         <v>4699002</v>
       </c>
@@ -13057,7 +12656,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="129">
         <v>4699002</v>
       </c>
@@ -13104,7 +12703,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="129"/>
       <c r="B6" s="121"/>
       <c r="D6" s="119"/>
@@ -13117,7 +12716,7 @@
       <c r="P6" s="124"/>
       <c r="Q6" s="124"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="129"/>
       <c r="B7" s="121"/>
       <c r="D7" s="119"/>
@@ -13130,7 +12729,7 @@
       <c r="P7" s="124"/>
       <c r="Q7" s="124"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="129">
         <v>3731002</v>
       </c>
@@ -13177,7 +12776,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="129">
         <v>3731002</v>
       </c>
@@ -13224,7 +12823,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="129">
         <v>4699002</v>
       </c>
@@ -13272,7 +12871,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="129">
         <v>4699002</v>
       </c>
@@ -13375,7 +12974,7 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="9" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
@@ -13395,7 +12994,7 @@
     <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -13448,7 +13047,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="129">
         <v>3731001</v>
       </c>
@@ -13493,7 +13092,7 @@
       </c>
       <c r="Q2" s="124"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="129">
         <v>3731001</v>
       </c>
@@ -13539,7 +13138,7 @@
       </c>
       <c r="Q3" s="124"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="129">
         <v>3731001</v>
       </c>
@@ -13584,7 +13183,7 @@
       </c>
       <c r="Q4" s="124"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="129">
         <v>3731001</v>
       </c>
@@ -13630,7 +13229,7 @@
       </c>
       <c r="Q5" s="124"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="129">
         <v>3731001</v>
       </c>
@@ -13674,7 +13273,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="129">
         <v>3731001</v>
       </c>
@@ -13718,7 +13317,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="129">
         <v>3731001</v>
       </c>
@@ -13762,7 +13361,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="129">
         <v>3731001</v>
       </c>
@@ -13806,7 +13405,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="129">
         <v>3731001</v>
       </c>
@@ -13850,7 +13449,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="129">
         <v>3731001</v>
       </c>
@@ -13894,7 +13493,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="129">
         <v>3731001</v>
       </c>
@@ -13938,7 +13537,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="129">
         <v>3731001</v>
       </c>
@@ -13982,7 +13581,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="129">
         <v>3731001</v>
       </c>
@@ -14026,7 +13625,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="129">
         <v>3731001</v>
       </c>
@@ -14070,7 +13669,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="129">
         <v>3731001</v>
       </c>
@@ -14114,7 +13713,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="129">
         <v>3731001</v>
       </c>
@@ -14158,7 +13757,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="129">
         <v>3731001</v>
       </c>
@@ -14202,7 +13801,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="129">
         <v>3731001</v>
       </c>
@@ -14246,7 +13845,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="129">
         <v>3731001</v>
       </c>
@@ -14290,7 +13889,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="129">
         <v>3731001</v>
       </c>
@@ -14334,7 +13933,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="129">
         <v>3731001</v>
       </c>
@@ -14378,7 +13977,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="129">
         <v>3731001</v>
       </c>
@@ -14422,7 +14021,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="129">
         <v>3731001</v>
       </c>
@@ -14466,7 +14065,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="129">
         <v>3731001</v>
       </c>
@@ -14510,7 +14109,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="129">
         <v>3731001</v>
       </c>
@@ -14554,7 +14153,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="129">
         <v>3731001</v>
       </c>
@@ -14598,7 +14197,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="129">
         <v>3731001</v>
       </c>
@@ -14642,7 +14241,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="129">
         <v>3731001</v>
       </c>
@@ -14686,7 +14285,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="129">
         <v>3731001</v>
       </c>
@@ -14730,7 +14329,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="129">
         <v>3731001</v>
       </c>
@@ -14774,7 +14373,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="129">
         <v>3731001</v>
       </c>
@@ -14818,7 +14417,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="129">
         <v>3731001</v>
       </c>
@@ -14862,7 +14461,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="129">
         <v>3731001</v>
       </c>
@@ -14906,7 +14505,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="129">
         <v>3731001</v>
       </c>
@@ -14950,7 +14549,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="129">
         <v>3731001</v>
       </c>
@@ -14994,7 +14593,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="129">
         <v>3731001</v>
       </c>
@@ -15038,7 +14637,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="129">
         <v>4699003</v>
       </c>
@@ -15082,7 +14681,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="129">
         <v>4699003</v>
       </c>
@@ -15126,7 +14725,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="129">
         <v>4699003</v>
       </c>
@@ -15170,7 +14769,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="129">
         <v>4699003</v>
       </c>
@@ -15214,7 +14813,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="129">
         <v>4699003</v>
       </c>
@@ -15258,7 +14857,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="129">
         <v>4699003</v>
       </c>
@@ -15302,7 +14901,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="129">
         <v>4699003</v>
       </c>
@@ -15346,7 +14945,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="129">
         <v>4699003</v>
       </c>
@@ -15390,7 +14989,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="129">
         <v>4699003</v>
       </c>
@@ -15434,7 +15033,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="129">
         <v>4699003</v>
       </c>
@@ -15478,7 +15077,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="129">
         <v>4699003</v>
       </c>
@@ -15522,7 +15121,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="129">
         <v>4699003</v>
       </c>
@@ -15566,7 +15165,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="129">
         <v>4699003</v>
       </c>
@@ -15610,7 +15209,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="129">
         <v>4699003</v>
       </c>
@@ -15654,7 +15253,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="129">
         <v>4699003</v>
       </c>
@@ -15698,7 +15297,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="129">
         <v>4699003</v>
       </c>
@@ -15742,7 +15341,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="129">
         <v>4699003</v>
       </c>
@@ -15786,7 +15385,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="129">
         <v>4699003</v>
       </c>
@@ -15830,7 +15429,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="129">
         <v>4699003</v>
       </c>
@@ -15874,7 +15473,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="129">
         <v>4699003</v>
       </c>
@@ -15918,7 +15517,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="129">
         <v>4699003</v>
       </c>
@@ -15962,7 +15561,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="129">
         <v>4699003</v>
       </c>
@@ -16006,7 +15605,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="129">
         <v>4699003</v>
       </c>
@@ -16050,7 +15649,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="129">
         <v>4699003</v>
       </c>
@@ -16094,7 +15693,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="129">
         <v>4699003</v>
       </c>
@@ -16138,7 +15737,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="129">
         <v>4699003</v>
       </c>
@@ -16182,7 +15781,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="129">
         <v>4699003</v>
       </c>
@@ -16226,7 +15825,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="129">
         <v>4699003</v>
       </c>
@@ -16270,7 +15869,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="129">
         <v>4699003</v>
       </c>
@@ -16314,7 +15913,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="129">
         <v>4699003</v>
       </c>
@@ -16358,7 +15957,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="129">
         <v>4699003</v>
       </c>
@@ -16402,7 +16001,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="129">
         <v>4699003</v>
       </c>
@@ -16446,7 +16045,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="129">
         <v>4699003</v>
       </c>
@@ -16490,7 +16089,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="129">
         <v>4699003</v>
       </c>
@@ -16534,7 +16133,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="129">
         <v>4699003</v>
       </c>
@@ -16578,7 +16177,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="129">
         <v>4699003</v>
       </c>
@@ -16677,7 +16276,7 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="9" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
@@ -16697,7 +16296,7 @@
     <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -16750,7 +16349,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="221" t="s">
         <v>129</v>
       </c>
@@ -16797,7 +16396,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="129">
         <v>5921001</v>
       </c>
@@ -16844,7 +16443,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="129"/>
       <c r="B4" s="121"/>
       <c r="C4" s="132"/>
@@ -16858,7 +16457,7 @@
       <c r="P4" s="124"/>
       <c r="Q4" s="124"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="129"/>
       <c r="B5" s="121"/>
       <c r="D5" s="119"/>
@@ -16871,7 +16470,7 @@
       <c r="P5" s="124"/>
       <c r="Q5" s="124"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="129"/>
       <c r="B6" s="121"/>
       <c r="D6" s="119"/>
@@ -16884,7 +16483,7 @@
       <c r="P6" s="124"/>
       <c r="Q6" s="124"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="129"/>
       <c r="B7" s="121"/>
       <c r="D7" s="119"/>
@@ -16897,7 +16496,7 @@
       <c r="P7" s="124"/>
       <c r="Q7" s="124"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="125"/>
       <c r="B8" s="121"/>
       <c r="D8" s="119"/>
@@ -16910,7 +16509,7 @@
       <c r="P8" s="124"/>
       <c r="Q8" s="124"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="129"/>
       <c r="B9" s="121"/>
       <c r="D9" s="119"/>
@@ -16923,7 +16522,7 @@
       <c r="P9" s="124"/>
       <c r="Q9" s="124"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="125"/>
       <c r="B10" s="121"/>
       <c r="D10" s="119"/>
@@ -16936,7 +16535,7 @@
       <c r="P10" s="124"/>
       <c r="Q10" s="124"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="125"/>
       <c r="B11" s="121"/>
       <c r="D11" s="119"/>
@@ -16949,7 +16548,7 @@
       <c r="P11" s="124"/>
       <c r="Q11" s="124"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="129"/>
       <c r="B12" s="209"/>
       <c r="C12" s="210"/>
@@ -16965,7 +16564,7 @@
       <c r="P12" s="124"/>
       <c r="Q12" s="124"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="213"/>
       <c r="B13" s="209"/>
       <c r="C13" s="210"/>
@@ -16981,7 +16580,7 @@
       <c r="P13" s="124"/>
       <c r="Q13" s="124"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="129"/>
       <c r="B14" s="121"/>
       <c r="C14" s="132"/>
@@ -16993,7 +16592,7 @@
       <c r="P14" s="124"/>
       <c r="Q14" s="124"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="125"/>
       <c r="B15" s="121"/>
       <c r="C15" s="132"/>
@@ -17005,7 +16604,7 @@
       <c r="P15" s="124"/>
       <c r="Q15" s="124"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="129"/>
       <c r="B16" s="121"/>
       <c r="C16" s="132"/>
@@ -17018,7 +16617,7 @@
       <c r="P16" s="124"/>
       <c r="Q16" s="124"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="129"/>
       <c r="B17" s="121"/>
       <c r="C17" s="132"/>
@@ -17031,7 +16630,7 @@
       <c r="P17" s="124"/>
       <c r="Q17" s="124"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="125"/>
       <c r="B18" s="121"/>
       <c r="C18" s="132"/>
@@ -17044,7 +16643,7 @@
       <c r="P18" s="124"/>
       <c r="Q18" s="124"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="129"/>
       <c r="B19" s="121"/>
       <c r="C19" s="132"/>
@@ -17110,7 +16709,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="9" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
@@ -17130,7 +16729,7 @@
     <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -17183,7 +16782,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="214">
         <v>6521001</v>
       </c>
@@ -17231,7 +16830,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="215" t="s">
         <v>311</v>
       </c>
@@ -17279,7 +16878,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="214">
         <v>1632002</v>
       </c>
@@ -17326,7 +16925,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="214">
         <v>6521001</v>
       </c>
@@ -17373,7 +16972,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="215" t="s">
         <v>311</v>
       </c>
@@ -17421,7 +17020,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="214">
         <v>1632002</v>
       </c>
@@ -17468,7 +17067,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="214">
         <v>6521001</v>
       </c>
@@ -17516,7 +17115,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="215" t="s">
         <v>311</v>
       </c>
@@ -17565,7 +17164,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="214">
         <v>1632002</v>
       </c>
@@ -17612,7 +17211,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="125"/>
       <c r="B11" s="121"/>
       <c r="I11" s="132"/>
@@ -17623,7 +17222,7 @@
       <c r="P11" s="124"/>
       <c r="Q11" s="124"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="129"/>
       <c r="B12" s="121"/>
       <c r="I12" s="132"/>
@@ -17634,7 +17233,7 @@
       <c r="P12" s="124"/>
       <c r="Q12" s="124"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="125"/>
       <c r="B13" s="121"/>
       <c r="I13" s="132"/>
@@ -17645,7 +17244,7 @@
       <c r="P13" s="124"/>
       <c r="Q13" s="124"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="129"/>
       <c r="B14" s="121"/>
       <c r="C14" s="132"/>
@@ -17659,7 +17258,7 @@
       <c r="P14" s="124"/>
       <c r="Q14" s="124"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="129"/>
       <c r="B15" s="121"/>
       <c r="C15" s="132"/>
@@ -17673,7 +17272,7 @@
       <c r="P15" s="124"/>
       <c r="Q15" s="124"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="129"/>
       <c r="B16" s="121"/>
       <c r="D16" s="119"/>
@@ -17686,7 +17285,7 @@
       <c r="P16" s="124"/>
       <c r="Q16" s="124"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="129"/>
       <c r="B17" s="121"/>
       <c r="D17" s="119"/>
@@ -17699,7 +17298,7 @@
       <c r="P17" s="124"/>
       <c r="Q17" s="124"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="129"/>
       <c r="B18" s="121"/>
       <c r="D18" s="119"/>
@@ -17712,7 +17311,7 @@
       <c r="P18" s="124"/>
       <c r="Q18" s="124"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="125"/>
       <c r="B19" s="121"/>
       <c r="D19" s="119"/>
@@ -17725,7 +17324,7 @@
       <c r="P19" s="124"/>
       <c r="Q19" s="124"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="129"/>
       <c r="B20" s="121"/>
       <c r="D20" s="119"/>
@@ -17738,7 +17337,7 @@
       <c r="P20" s="124"/>
       <c r="Q20" s="124"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="125"/>
       <c r="B21" s="121"/>
       <c r="D21" s="119"/>
@@ -17751,7 +17350,7 @@
       <c r="P21" s="124"/>
       <c r="Q21" s="124"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="125"/>
       <c r="B22" s="121"/>
       <c r="D22" s="119"/>
@@ -17764,7 +17363,7 @@
       <c r="P22" s="124"/>
       <c r="Q22" s="124"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="129"/>
       <c r="B23" s="209"/>
       <c r="C23" s="210"/>
@@ -17780,7 +17379,7 @@
       <c r="P23" s="124"/>
       <c r="Q23" s="124"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="213"/>
       <c r="B24" s="209"/>
       <c r="C24" s="210"/>
@@ -17796,7 +17395,7 @@
       <c r="P24" s="124"/>
       <c r="Q24" s="124"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="129"/>
       <c r="B25" s="121"/>
       <c r="C25" s="132"/>
@@ -17808,7 +17407,7 @@
       <c r="P25" s="124"/>
       <c r="Q25" s="124"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="125"/>
       <c r="B26" s="121"/>
       <c r="C26" s="132"/>
@@ -17820,7 +17419,7 @@
       <c r="P26" s="124"/>
       <c r="Q26" s="124"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="129"/>
       <c r="B27" s="121"/>
       <c r="C27" s="132"/>
@@ -17833,7 +17432,7 @@
       <c r="P27" s="124"/>
       <c r="Q27" s="124"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="129"/>
       <c r="B28" s="121"/>
       <c r="C28" s="132"/>
@@ -17846,7 +17445,7 @@
       <c r="P28" s="124"/>
       <c r="Q28" s="124"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="125"/>
       <c r="B29" s="121"/>
       <c r="C29" s="132"/>
@@ -17859,7 +17458,7 @@
       <c r="P29" s="124"/>
       <c r="Q29" s="124"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="129"/>
       <c r="B30" s="121"/>
       <c r="C30" s="132"/>
@@ -17927,7 +17526,7 @@
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="9" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
@@ -17948,7 +17547,7 @@
     <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -18001,7 +17600,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="129" t="s">
         <v>147</v>
       </c>
@@ -18049,7 +17648,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="125" t="s">
         <v>146</v>
       </c>
@@ -18096,7 +17695,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="50" customFormat="1">
+    <row r="4" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="181" t="s">
         <v>147</v>
       </c>
@@ -18145,7 +17744,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="50" customFormat="1">
+    <row r="5" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="188" t="s">
         <v>146</v>
       </c>
@@ -18194,7 +17793,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="129" t="s">
         <v>298</v>
       </c>
@@ -18241,7 +17840,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="125" t="s">
         <v>146</v>
       </c>
@@ -18288,7 +17887,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>142</v>
       </c>
@@ -18335,7 +17934,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="125" t="s">
         <v>146</v>
       </c>
@@ -18382,7 +17981,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="129" t="s">
         <v>300</v>
       </c>
@@ -18429,7 +18028,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="125" t="s">
         <v>146</v>
       </c>
@@ -18476,7 +18075,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="129" t="s">
         <v>142</v>
       </c>
@@ -18523,7 +18122,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="125" t="s">
         <v>146</v>
       </c>
@@ -18570,7 +18169,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="129" t="s">
         <v>300</v>
       </c>
@@ -18617,7 +18216,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="129" t="s">
         <v>142</v>
       </c>
@@ -18664,7 +18263,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="129" t="s">
         <v>147</v>
       </c>
@@ -18711,7 +18310,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="129" t="s">
         <v>300</v>
       </c>
@@ -18758,7 +18357,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="129" t="s">
         <v>142</v>
       </c>
@@ -18805,7 +18404,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="125" t="s">
         <v>146</v>
       </c>
@@ -18853,7 +18452,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="154" customFormat="1">
+    <row r="20" spans="1:17" s="154" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="177" t="s">
         <v>142</v>
       </c>
@@ -18902,7 +18501,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="200" customFormat="1">
+    <row r="21" spans="1:17" s="200" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="201" t="s">
         <v>308</v>
       </c>
@@ -18951,7 +18550,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="200" customFormat="1">
+    <row r="22" spans="1:17" s="200" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="201" t="s">
         <v>146</v>
       </c>
@@ -19001,7 +18600,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="200" customFormat="1">
+    <row r="23" spans="1:17" s="200" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="189" t="s">
         <v>147</v>
       </c>
@@ -19050,7 +18649,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="200" customFormat="1">
+    <row r="24" spans="1:17" s="200" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="206" t="s">
         <v>146</v>
       </c>
@@ -19099,7 +18698,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="129" t="s">
         <v>147</v>
       </c>
@@ -19146,7 +18745,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="125" t="s">
         <v>146</v>
       </c>
@@ -19193,7 +18792,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="129" t="s">
         <v>142</v>
       </c>
@@ -19241,7 +18840,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="129" t="s">
         <v>300</v>
       </c>
@@ -19289,7 +18888,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="125" t="s">
         <v>146</v>
       </c>
@@ -19336,7 +18935,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="129" t="s">
         <v>147</v>
       </c>
@@ -19438,7 +19037,7 @@
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="9" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
@@ -19459,7 +19058,7 @@
     <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -19512,7 +19111,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75">
+    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="129" t="s">
         <v>167</v>
       </c>
@@ -19560,7 +19159,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="129" t="s">
         <v>166</v>
       </c>
@@ -19609,7 +19208,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="125" t="s">
         <v>129</v>
       </c>
@@ -19659,7 +19258,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="129" t="s">
         <v>127</v>
       </c>
@@ -19708,7 +19307,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="128" t="s">
         <v>166</v>
       </c>
@@ -19757,7 +19356,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="127" t="s">
         <v>167</v>
       </c>
@@ -19806,7 +19405,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="125" t="s">
         <v>129</v>
       </c>
@@ -19856,7 +19455,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="128" t="s">
         <v>122</v>
       </c>
@@ -19905,7 +19504,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="128" t="s">
         <v>166</v>
       </c>
@@ -19954,7 +19553,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="127" t="s">
         <v>167</v>
       </c>
@@ -20003,7 +19602,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="125" t="s">
         <v>129</v>
       </c>
@@ -20053,7 +19652,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="128" t="s">
         <v>122</v>
       </c>
@@ -20102,7 +19701,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="125" t="s">
         <v>129</v>
       </c>
@@ -20151,7 +19750,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="128" t="s">
         <v>127</v>
       </c>
@@ -20200,7 +19799,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="125" t="s">
         <v>129</v>
       </c>
@@ -20249,7 +19848,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="131">
         <v>4699002</v>
       </c>
@@ -20298,7 +19897,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="127" t="s">
         <v>167</v>
       </c>
@@ -20347,7 +19946,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="125" t="s">
         <v>129</v>
       </c>
@@ -20396,7 +19995,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="128" t="s">
         <v>185</v>
       </c>
@@ -20445,7 +20044,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="127" t="s">
         <v>167</v>
       </c>
@@ -20494,7 +20093,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="125" t="s">
         <v>129</v>
       </c>
@@ -20542,7 +20141,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="128" t="s">
         <v>166</v>
       </c>
@@ -20589,7 +20188,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="127" t="s">
         <v>167</v>
       </c>
@@ -20636,7 +20235,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="125" t="s">
         <v>129</v>
       </c>
@@ -20684,7 +20283,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="128" t="s">
         <v>166</v>
       </c>
@@ -20731,7 +20330,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="129" t="s">
         <v>167</v>
       </c>
@@ -20779,7 +20378,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="125" t="s">
         <v>129</v>
       </c>
@@ -20827,7 +20426,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="129" t="s">
         <v>166</v>
       </c>
@@ -20874,7 +20473,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="129" t="s">
         <v>167</v>
       </c>
@@ -20921,7 +20520,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="127" t="s">
         <v>167</v>
       </c>
@@ -20968,7 +20567,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="125" t="s">
         <v>129</v>
       </c>
@@ -21015,7 +20614,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="128" t="s">
         <v>166</v>
       </c>
@@ -21062,7 +20661,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="125" t="s">
         <v>129</v>
       </c>
@@ -21109,7 +20708,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="128">
         <v>4721004</v>
       </c>
@@ -21156,7 +20755,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="129" t="s">
         <v>167</v>
       </c>
@@ -21203,7 +20802,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="128" t="s">
         <v>127</v>
       </c>
@@ -21250,7 +20849,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="125" t="s">
         <v>129</v>
       </c>
@@ -21297,7 +20896,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="128">
         <v>4721004</v>
       </c>
@@ -21344,7 +20943,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="129" t="s">
         <v>167</v>
       </c>
@@ -21391,7 +20990,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>166</v>
       </c>
@@ -21438,7 +21037,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="125" t="s">
         <v>129</v>
       </c>
@@ -21485,7 +21084,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>122</v>
       </c>
@@ -21532,7 +21131,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="125" t="s">
         <v>129</v>
       </c>
@@ -21579,7 +21178,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="129" t="s">
         <v>167</v>
       </c>
@@ -21627,7 +21226,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="125" t="s">
         <v>129</v>
       </c>
@@ -21674,7 +21273,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>122</v>
       </c>
@@ -21721,7 +21320,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>185</v>
       </c>
@@ -21768,7 +21367,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="129" t="s">
         <v>167</v>
       </c>
@@ -21815,7 +21414,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="125" t="s">
         <v>129</v>
       </c>
@@ -21863,7 +21462,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>166</v>
       </c>
@@ -21910,7 +21509,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="129" t="s">
         <v>167</v>
       </c>
@@ -21957,7 +21556,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>223</v>
       </c>
@@ -22004,7 +21603,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="125" t="s">
         <v>129</v>
       </c>
@@ -22051,7 +21650,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="127" t="s">
         <v>167</v>
       </c>
@@ -22098,7 +21697,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="125" t="s">
         <v>129</v>
       </c>
@@ -22145,7 +21744,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>166</v>
       </c>
@@ -22192,7 +21791,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="125" t="s">
         <v>129</v>
       </c>
@@ -22239,7 +21838,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>166</v>
       </c>
@@ -22286,7 +21885,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>167</v>
       </c>
@@ -22333,7 +21932,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="125" t="s">
         <v>129</v>
       </c>
@@ -22381,7 +21980,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="143" t="s">
         <v>127</v>
       </c>
@@ -22428,7 +22027,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="125" t="s">
         <v>129</v>
       </c>
@@ -22475,7 +22074,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>166</v>
       </c>
@@ -22522,7 +22121,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="125" t="s">
         <v>129</v>
       </c>
@@ -22569,7 +22168,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>167</v>
       </c>
@@ -22616,7 +22215,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="125" t="s">
         <v>129</v>
       </c>
@@ -22664,7 +22263,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="128" t="s">
         <v>122</v>
       </c>
@@ -22711,7 +22310,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="125" t="s">
         <v>129</v>
       </c>
@@ -22758,7 +22357,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>166</v>
       </c>
@@ -22805,7 +22404,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="125" t="s">
         <v>129</v>
       </c>
@@ -22852,7 +22451,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>167</v>
       </c>
@@ -22899,7 +22498,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="125" t="s">
         <v>129</v>
       </c>
@@ -22946,7 +22545,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:17" s="30" customFormat="1">
+    <row r="74" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="127" t="s">
         <v>122</v>
       </c>
@@ -22995,7 +22594,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:17" s="30" customFormat="1">
+    <row r="75" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="176" t="s">
         <v>129</v>
       </c>
@@ -23044,7 +22643,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:17" s="30" customFormat="1">
+    <row r="76" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="127" t="s">
         <v>166</v>
       </c>
@@ -23093,7 +22692,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:17" s="30" customFormat="1">
+    <row r="77" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="176" t="s">
         <v>129</v>
       </c>
@@ -23142,7 +22741,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="1:17" s="30" customFormat="1">
+    <row r="78" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="127" t="s">
         <v>167</v>
       </c>
@@ -23191,7 +22790,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:17" s="30" customFormat="1">
+    <row r="79" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="176" t="s">
         <v>129</v>
       </c>
@@ -23240,7 +22839,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:17" s="30" customFormat="1">
+    <row r="80" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="127" t="s">
         <v>122</v>
       </c>
@@ -23289,7 +22888,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:17" s="30" customFormat="1">
+    <row r="81" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="176" t="s">
         <v>129</v>
       </c>
@@ -23338,7 +22937,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="128" t="s">
         <v>166</v>
       </c>
@@ -23385,7 +22984,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="127" t="s">
         <v>167</v>
       </c>
@@ -23432,7 +23031,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>185</v>
       </c>
@@ -23480,7 +23079,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="127" t="s">
         <v>167</v>
       </c>
@@ -23527,7 +23126,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="125" t="s">
         <v>129</v>
       </c>
@@ -23575,7 +23174,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="127" t="s">
         <v>167</v>
       </c>
@@ -23622,7 +23221,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="125" t="s">
         <v>129</v>
       </c>
@@ -23669,7 +23268,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="127" t="s">
         <v>167</v>
       </c>
@@ -23716,7 +23315,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="125" t="s">
         <v>129</v>
       </c>
@@ -23763,7 +23362,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>185</v>
       </c>
@@ -23810,7 +23409,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="125" t="s">
         <v>129</v>
       </c>
@@ -23857,7 +23456,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>167</v>
       </c>
@@ -23904,7 +23503,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="125" t="s">
         <v>129</v>
       </c>
@@ -23951,7 +23550,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>166</v>
       </c>
@@ -23998,7 +23597,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="125" t="s">
         <v>129</v>
       </c>
@@ -24045,7 +23644,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>167</v>
       </c>
@@ -24092,7 +23691,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="125" t="s">
         <v>129</v>
       </c>
@@ -24139,7 +23738,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="127" t="s">
         <v>167</v>
       </c>
@@ -24186,7 +23785,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="127" t="s">
         <v>272</v>
       </c>
@@ -24233,7 +23832,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>127</v>
       </c>
@@ -24280,7 +23879,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="125" t="s">
         <v>129</v>
       </c>
@@ -24328,7 +23927,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>166</v>
       </c>
@@ -24375,7 +23974,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="125" t="s">
         <v>129</v>
       </c>
@@ -24422,7 +24021,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="127" t="s">
         <v>167</v>
       </c>
@@ -24469,7 +24068,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="125" t="s">
         <v>129</v>
       </c>
@@ -24516,7 +24115,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="127" t="s">
         <v>167</v>
       </c>
@@ -24563,7 +24162,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="125" t="s">
         <v>129</v>
       </c>
@@ -24610,7 +24209,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
         <v>166</v>
       </c>
@@ -24657,7 +24256,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="125" t="s">
         <v>129</v>
       </c>
@@ -24704,7 +24303,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
         <v>167</v>
       </c>
@@ -24751,7 +24350,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="125" t="s">
         <v>129</v>
       </c>
@@ -24798,7 +24397,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>167</v>
       </c>
@@ -24845,7 +24444,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="125" t="s">
         <v>166</v>
       </c>
@@ -24892,7 +24491,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="125" t="s">
         <v>129</v>
       </c>
@@ -24940,7 +24539,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>122</v>
       </c>
@@ -24987,7 +24586,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="125" t="s">
         <v>129</v>
       </c>
@@ -25034,7 +24633,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="118" spans="1:17" s="154" customFormat="1">
+    <row r="118" spans="1:17" s="154" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="146" t="s">
         <v>167</v>
       </c>
@@ -25083,7 +24682,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="119" spans="1:17" s="154" customFormat="1">
+    <row r="119" spans="1:17" s="154" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="155" t="s">
         <v>129</v>
       </c>
@@ -25132,7 +24731,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="1:17" s="154" customFormat="1">
+    <row r="120" spans="1:17" s="154" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="146" t="s">
         <v>127</v>
       </c>
@@ -25181,7 +24780,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="121" spans="1:17" s="154" customFormat="1">
+    <row r="121" spans="1:17" s="154" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="155" t="s">
         <v>129</v>
       </c>
@@ -25230,7 +24829,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>166</v>
       </c>
@@ -25278,7 +24877,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:17">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="155" t="s">
         <v>129</v>
       </c>
@@ -25326,7 +24925,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:17">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>122</v>
       </c>
@@ -25373,7 +24972,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:17">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="155" t="s">
         <v>129</v>
       </c>
@@ -25420,7 +25019,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="126" spans="1:17">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>167</v>
       </c>
@@ -25467,7 +25066,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:17">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="155" t="s">
         <v>129</v>
       </c>
@@ -25514,7 +25113,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="1:17">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>127</v>
       </c>
@@ -25561,7 +25160,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="129" spans="1:17">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="155" t="s">
         <v>129</v>
       </c>
@@ -25663,7 +25262,7 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="9" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
@@ -25684,7 +25283,7 @@
     <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -25737,7 +25336,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="114" t="s">
         <v>142</v>
       </c>
@@ -25784,7 +25383,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="101" t="s">
         <v>146</v>
       </c>
@@ -25831,7 +25430,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1">
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="115" t="s">
         <v>147</v>
       </c>
@@ -25878,7 +25477,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.75" thickBot="1">
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="101" t="s">
         <v>146</v>
       </c>
@@ -25925,7 +25524,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15.75" thickBot="1">
+    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="114" t="s">
         <v>142</v>
       </c>
@@ -25972,7 +25571,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15.75" thickBot="1">
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="101" t="s">
         <v>146</v>
       </c>
@@ -26019,7 +25618,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15.75" thickBot="1">
+    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="115" t="s">
         <v>149</v>
       </c>
@@ -26066,7 +25665,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15.75" thickBot="1">
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="101" t="s">
         <v>146</v>
       </c>
@@ -26113,7 +25712,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="116" t="s">
         <v>147</v>
       </c>
@@ -26160,7 +25759,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="101" t="s">
         <v>146</v>
       </c>
@@ -26207,7 +25806,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.75" thickBot="1">
+    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="117" t="s">
         <v>142</v>
       </c>
@@ -26254,7 +25853,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15.75" thickBot="1">
+    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="101" t="s">
         <v>146</v>
       </c>
@@ -26301,7 +25900,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1">
+    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="110" t="s">
         <v>156</v>
       </c>
@@ -26348,7 +25947,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15.75" thickBot="1">
+    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="101" t="s">
         <v>146</v>
       </c>
@@ -26395,7 +25994,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15.75" thickBot="1">
+    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="110" t="s">
         <v>142</v>
       </c>
@@ -26442,7 +26041,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15.75" thickBot="1">
+    <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="101" t="s">
         <v>146</v>
       </c>
@@ -26489,7 +26088,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="114" t="s">
         <v>147</v>
       </c>
@@ -26536,7 +26135,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="101" t="s">
         <v>146</v>
       </c>
@@ -26583,7 +26182,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="114">
         <v>4699003</v>
       </c>
@@ -26631,7 +26230,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="101" t="s">
         <v>146</v>
       </c>
@@ -26679,7 +26278,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G24" s="88"/>
     </row>
   </sheetData>
@@ -26736,7 +26335,7 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="9" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
@@ -26757,7 +26356,7 @@
     <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -26810,7 +26409,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="108" t="s">
         <v>122</v>
       </c>
@@ -26859,7 +26458,7 @@
       </c>
       <c r="R2" s="105"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="101" t="s">
         <v>129</v>
       </c>
@@ -26909,7 +26508,7 @@
       </c>
       <c r="R3" s="105"/>
     </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1">
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="108" t="s">
         <v>122</v>
       </c>
@@ -26958,7 +26557,7 @@
       </c>
       <c r="R4" s="105"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1">
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="101" t="s">
         <v>129</v>
       </c>
